--- a/Archive/Automation Project listN.xlsx
+++ b/Archive/Automation Project listN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB1321-D8FD-4DD8-877A-5C3CCBDA8A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5F4DA2-55BA-4728-B429-4DF2A39136C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="236">
   <si>
     <t>Project_Type</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>Cargo Ops/Transhipment</t>
+  </si>
+  <si>
+    <t>Cxml to xlsx and comparision</t>
   </si>
 </sst>
 </file>
@@ -7471,20 +7474,46 @@
       <c r="O68" s="8"/>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
+    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
       <c r="P69" s="7"/>

--- a/Archive/Automation Project listN.xlsx
+++ b/Archive/Automation Project listN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5F4DA2-55BA-4728-B429-4DF2A39136C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4708F2-C1E6-4AAB-802F-6B18A50DE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4409,7 +4409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7506,7 +7506,7 @@
         <v>119</v>
       </c>
       <c r="K69" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L69" s="16" t="s">
         <v>28</v>

--- a/Archive/Automation Project listN.xlsx
+++ b/Archive/Automation Project listN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4708F2-C1E6-4AAB-802F-6B18A50DE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21DE616-CA41-4735-8D0F-7CE9610E9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Project_List Others Dept." sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$Q$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$Q$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project_List Others Dept.'!$A$2:$O$11</definedName>
     <definedName name="Slicer_Benefits_achieved">#N/A</definedName>
     <definedName name="Slicer_Project_Type">#N/A</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="236">
   <si>
     <t>Project_Type</t>
   </si>
@@ -338,9 +338,6 @@
     <t>AUTOMATE JOURNEY LEG RFI EMAILS</t>
   </si>
   <si>
-    <t>AUTO CHANGE ETD IN BAYPLAN TRACKER</t>
-  </si>
-  <si>
     <t xml:space="preserve">WEB PAGE REFRESH </t>
   </si>
   <si>
@@ -765,9 +762,6 @@
     <t>Shaikh</t>
   </si>
   <si>
-    <t>Ambethe</t>
-  </si>
-  <si>
     <t>VGM missing _ Transhipment</t>
   </si>
   <si>
@@ -775,6 +769,12 @@
   </si>
   <si>
     <t>Cxml to xlsx and comparision</t>
+  </si>
+  <si>
+    <t>Edi_001 automation</t>
+  </si>
+  <si>
+    <t>Viraj Tondalkar</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1595,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Akhilesh CHAUHAN" refreshedDate="44784.627846875002" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{E9EAFC9A-9BBE-4EBF-BD38-0840CAE1A5FD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P86" sheet="Project_List Operations"/>
+    <worksheetSource ref="A1:P85" sheet="Project_List Operations"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Project_Type" numFmtId="0">
@@ -3936,12 +3936,12 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.7">
       <c r="A4" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -3968,7 +3968,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.7">
@@ -3976,7 +3976,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>22</v>
@@ -4080,7 +4080,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>22</v>
@@ -4114,7 +4114,7 @@
       <c r="B14" s="31"/>
       <c r="C14" s="33"/>
       <c r="D14" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="34">
         <v>1</v>
@@ -4128,7 +4128,7 @@
       <c r="B15" s="31"/>
       <c r="C15" s="33"/>
       <c r="D15" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="34">
         <v>1</v>
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="33"/>
@@ -4183,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="31"/>
       <c r="B19" s="31" t="s">
         <v>49</v>
@@ -4201,9 +4201,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4333,16 +4333,16 @@
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
@@ -4351,34 +4351,34 @@
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="27"/>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A8" s="26"/>
       <c r="B8" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A9" s="26"/>
       <c r="B9" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.5">
@@ -4387,10 +4387,10 @@
     </row>
     <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A11" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.5">
@@ -4404,12 +4404,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Q72"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4469,10 +4469,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>13</v>
@@ -4481,7 +4481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -4495,13 +4495,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="18">
         <v>44551</v>
@@ -4510,7 +4510,7 @@
         <v>44552</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>22</v>
@@ -4527,7 +4527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
@@ -4538,10 +4538,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>26</v>
@@ -4556,10 +4556,10 @@
         <v>27</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>28</v>
@@ -4573,7 +4573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>26</v>
@@ -4602,7 +4602,7 @@
         <v>44621.894444444442</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>22</v>
@@ -4616,30 +4616,30 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>27</v>
@@ -4648,7 +4648,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>22</v>
@@ -4665,7 +4665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -4679,13 +4679,13 @@
         <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>27</v>
@@ -4694,7 +4694,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>22</v>
@@ -4708,30 +4708,30 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="18">
         <v>44553</v>
@@ -4740,44 +4740,44 @@
         <v>44555</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="18">
         <v>44555</v>
@@ -4786,44 +4786,44 @@
         <v>44556</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="18">
         <v>44556</v>
@@ -4832,21 +4832,21 @@
         <v>44558</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -4854,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>74</v>
@@ -4863,7 +4863,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>26</v>
@@ -4876,7 +4876,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>29</v>
@@ -4890,30 +4890,30 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="18">
         <v>44559</v>
@@ -4922,44 +4922,44 @@
         <v>44560</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="18">
         <v>44561</v>
@@ -4968,38 +4968,38 @@
         <v>44565</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>26</v>
@@ -5014,38 +5014,38 @@
         <v>44573</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>26</v>
@@ -5060,44 +5060,44 @@
         <v>44580</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" s="18">
         <v>44580</v>
@@ -5106,44 +5106,44 @@
         <v>44582</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16" s="18">
         <v>44583</v>
@@ -5152,29 +5152,29 @@
         <v>44583</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>79</v>
@@ -5183,13 +5183,13 @@
         <v>27</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="18">
         <v>44584</v>
@@ -5198,44 +5198,44 @@
         <v>44586</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="18">
         <v>44588</v>
@@ -5244,44 +5244,44 @@
         <v>44588</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="18">
         <v>44586</v>
@@ -5290,21 +5290,21 @@
         <v>44588</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -5312,7 +5312,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>82</v>
@@ -5321,7 +5321,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>26</v>
@@ -5336,7 +5336,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>29</v>
@@ -5348,14 +5348,14 @@
         <v>29</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>26</v>
@@ -5382,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>29</v>
@@ -5395,13 +5395,13 @@
       </c>
       <c r="N21" s="16"/>
       <c r="O21" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
@@ -5415,13 +5415,13 @@
         <v>27</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="18">
         <v>44574</v>
@@ -5430,7 +5430,7 @@
         <v>44578</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>22</v>
@@ -5444,15 +5444,15 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>41</v>
@@ -5461,13 +5461,13 @@
         <v>27</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="18">
         <v>44552</v>
@@ -5476,46 +5476,46 @@
         <v>44554</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H24" s="18">
         <v>44554</v>
@@ -5524,46 +5524,46 @@
         <v>44558</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="18">
         <v>44229</v>
@@ -5572,46 +5572,46 @@
         <v>44230</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H26" s="18">
         <v>44561</v>
@@ -5620,31 +5620,31 @@
         <v>44564</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>44</v>
@@ -5653,13 +5653,13 @@
         <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H27" s="18">
         <v>44564</v>
@@ -5668,26 +5668,26 @@
         <v>44567</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O27" s="16"/>
       <c r="P27" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
@@ -5698,10 +5698,10 @@
         <v>86</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>26</v>
@@ -5714,7 +5714,7 @@
         <v>27</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>29</v>
@@ -5728,10 +5728,10 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -5742,10 +5742,10 @@
         <v>87</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>26</v>
@@ -5758,7 +5758,7 @@
         <v>27</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>29</v>
@@ -5772,10 +5772,10 @@
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
         <v>24</v>
       </c>
@@ -5789,13 +5789,13 @@
         <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H30" s="18">
         <v>44593</v>
@@ -5804,7 +5804,7 @@
         <v>44596</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>22</v>
@@ -5819,30 +5819,30 @@
         <v>45</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>27</v>
@@ -5851,7 +5851,7 @@
         <v>27</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>22</v>
@@ -5868,25 +5868,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>27</v>
@@ -5895,7 +5895,7 @@
         <v>27</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>22</v>
@@ -5917,16 +5917,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>91</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>26</v>
@@ -5939,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>29</v>
@@ -5952,13 +5950,13 @@
       </c>
       <c r="N33" s="16"/>
       <c r="O33" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>24</v>
       </c>
@@ -5966,13 +5964,13 @@
         <v>30</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>21</v>
@@ -5987,7 +5985,7 @@
         <v>27</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>29</v>
@@ -6001,7 +5999,7 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -6009,16 +6007,16 @@
         <v>24</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>26</v>
@@ -6031,7 +6029,7 @@
         <v>27</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>29</v>
@@ -6045,7 +6043,7 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -6053,16 +6051,16 @@
         <v>24</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>26</v>
@@ -6075,7 +6073,7 @@
         <v>27</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>29</v>
@@ -6089,30 +6087,30 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H37" s="16" t="s">
         <v>27</v>
@@ -6121,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>22</v>
@@ -6138,27 +6136,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="84" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>27</v>
@@ -6167,7 +6165,7 @@
         <v>27</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>22</v>
@@ -6184,27 +6182,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H39" s="16" t="s">
         <v>27</v>
@@ -6213,7 +6211,7 @@
         <v>27</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>22</v>
@@ -6230,27 +6228,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>27</v>
@@ -6259,26 +6257,26 @@
         <v>27</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O40" s="16"/>
       <c r="P40" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6286,19 +6284,19 @@
         <v>30</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="18">
         <v>44700</v>
@@ -6307,7 +6305,7 @@
         <v>44700</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>22</v>
@@ -6321,24 +6319,24 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>156</v>
-      </c>
       <c r="D42" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>26</v>
@@ -6351,38 +6349,38 @@
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>26</v>
@@ -6395,38 +6393,38 @@
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>26</v>
@@ -6441,21 +6439,21 @@
         <v>27</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -6463,16 +6461,16 @@
         <v>24</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="E45" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>26</v>
@@ -6481,7 +6479,7 @@
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>29</v>
@@ -6495,10 +6493,10 @@
       <c r="N45" s="16"/>
       <c r="O45" s="8"/>
       <c r="P45" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
@@ -6506,19 +6504,19 @@
         <v>30</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>27</v>
@@ -6527,7 +6525,7 @@
         <v>27</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>22</v>
@@ -6541,7 +6539,7 @@
       <c r="N46" s="16"/>
       <c r="O46" s="8"/>
       <c r="P46" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -6549,31 +6547,31 @@
         <v>24</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>29</v>
@@ -6587,24 +6585,24 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>26</v>
@@ -6619,21 +6617,21 @@
         <v>27</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -6641,16 +6639,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>175</v>
-      </c>
       <c r="E49" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>26</v>
@@ -6665,7 +6663,7 @@
         <v>27</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>29</v>
@@ -6679,24 +6677,24 @@
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="21" x14ac:dyDescent="0.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.5">
       <c r="A50" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>26</v>
@@ -6711,7 +6709,7 @@
         <v>27</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>29</v>
@@ -6728,27 +6726,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D51" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>27</v>
@@ -6757,7 +6755,7 @@
         <v>27</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>28</v>
@@ -6769,11 +6767,11 @@
         <v>28</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O51" s="8"/>
       <c r="P51" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -6781,22 +6779,22 @@
         <v>24</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>195</v>
-      </c>
       <c r="E52" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>27</v>
@@ -6805,7 +6803,7 @@
         <v>27</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>29</v>
@@ -6819,10 +6817,10 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="63" x14ac:dyDescent="0.35">
@@ -6830,22 +6828,22 @@
         <v>24</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>198</v>
-      </c>
       <c r="E53" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>27</v>
@@ -6854,7 +6852,7 @@
         <v>27</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>29</v>
@@ -6868,13 +6866,13 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q53" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>24</v>
       </c>
@@ -6917,10 +6915,10 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="147" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="147" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>32</v>
       </c>
@@ -6963,10 +6961,10 @@
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="63" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>32</v>
       </c>
@@ -7009,30 +7007,30 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="D57" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>202</v>
-      </c>
       <c r="E57" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F57" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>27</v>
@@ -7041,7 +7039,7 @@
         <v>27</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>22</v>
@@ -7055,30 +7053,30 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F58" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>27</v>
@@ -7087,7 +7085,7 @@
         <v>27</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>22</v>
@@ -7101,30 +7099,30 @@
       <c r="N58" s="16"/>
       <c r="O58" s="8"/>
       <c r="P58" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>206</v>
-      </c>
       <c r="E59" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F59" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>27</v>
@@ -7133,7 +7131,7 @@
         <v>27</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>22</v>
@@ -7147,18 +7145,18 @@
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>27</v>
@@ -7170,16 +7168,16 @@
         <v>21</v>
       </c>
       <c r="G60" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>22</v>
@@ -7194,21 +7192,21 @@
       <c r="O60" s="8"/>
       <c r="P60" s="7"/>
     </row>
-    <row r="61" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F61" s="16" t="s">
         <v>26</v>
@@ -7223,44 +7221,44 @@
         <v>27</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K61" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="D62" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>27</v>
@@ -7269,31 +7267,31 @@
         <v>27</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>20</v>
@@ -7302,16 +7300,16 @@
         <v>21</v>
       </c>
       <c r="G63" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>22</v>
@@ -7326,12 +7324,12 @@
       <c r="O63" s="8"/>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>98</v>
+      <c r="B64" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="8"/>
@@ -7341,7 +7339,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>29</v>
@@ -7352,12 +7350,12 @@
       <c r="O64" s="8"/>
       <c r="P64" s="7"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>98</v>
+      <c r="B65" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="8"/>
@@ -7367,7 +7365,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>29</v>
@@ -7378,7 +7376,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
         <v>24</v>
       </c>
@@ -7393,7 +7391,7 @@
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K66" s="16" t="s">
         <v>29</v>
@@ -7404,47 +7402,65 @@
       <c r="O66" s="8"/>
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
+        <v>232</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="J67" s="16" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="9" t="s">
         <v>233</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>21</v>
@@ -7458,11 +7474,11 @@
       <c r="I68" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="16" t="s">
-        <v>122</v>
+      <c r="J68" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L68" s="16" t="s">
         <v>28</v>
@@ -7474,36 +7490,36 @@
       <c r="O68" s="8"/>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>19</v>
+      <c r="B69" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="13">
+        <v>44853</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="K69" s="16" t="s">
         <v>22</v>
@@ -7511,12 +7527,14 @@
       <c r="L69" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M69" s="8" t="s">
+      <c r="M69" s="16" t="s">
         <v>28</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
-      <c r="P69" s="7"/>
+      <c r="P69" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
@@ -7554,34 +7572,28 @@
       <c r="O71" s="8"/>
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="7"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:Q69" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="OPS ASSISTANCE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53 L51:M53 K54:M57 K58 K59:M60 K61:K63 M62 L63:M63 K64:M83" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53 L51:M53 K54:M57 K58 K59:M60 M62 L70:M82 L63:M68 K61:K82" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
       <formula1>"Work In Progrees, Complete, Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F83" xr:uid="{56032840-971D-4173-A1C8-7440F8C331B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M50 L58:M58 L61:M61 L62 L69:M69" xr:uid="{DE1DE406-F1E1-41EA-A363-3FFB7444524F}">
+      <formula1>"Under Testing, Complete, Pending"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F82" xr:uid="{56032840-971D-4173-A1C8-7440F8C331B9}">
       <formula1>"Simple, Complex"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M50 L58:M58 L61:M61 L62" xr:uid="{DE1DE406-F1E1-41EA-A363-3FFB7444524F}">
-      <formula1>"Under Testing, Complete, Pending"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7598,8 +7610,8 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7756,7 +7768,7 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -7815,7 +7827,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>63</v>
@@ -7846,7 +7858,7 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -7891,7 +7903,7 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -7899,7 +7911,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>68</v>
@@ -7936,7 +7948,7 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -7944,16 +7956,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>26</v>
@@ -7968,7 +7980,7 @@
         <v>44763</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>22</v>
@@ -7981,7 +7993,7 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -7992,7 +8004,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>27</v>
@@ -8026,7 +8038,7 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -8037,7 +8049,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>27</v>
@@ -8071,7 +8083,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -8082,7 +8094,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>27</v>
@@ -8103,7 +8115,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>22</v>
@@ -8116,7 +8128,7 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -8124,13 +8136,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>63</v>
@@ -8148,7 +8160,7 @@
         <v>27</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>22</v>
@@ -8161,7 +8173,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -8169,31 +8181,31 @@
         <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
@@ -8204,7 +8216,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -8212,7 +8224,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
@@ -8222,7 +8234,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>29</v>

--- a/Archive/Automation Project listN.xlsx
+++ b/Archive/Automation Project listN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21DE616-CA41-4735-8D0F-7CE9610E9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDCF57-EA73-4EB3-8021-B3B3AE2180F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Project_List Others Dept." sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$Q$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$Q$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project_List Others Dept.'!$A$2:$O$11</definedName>
     <definedName name="Slicer_Benefits_achieved">#N/A</definedName>
     <definedName name="Slicer_Project_Type">#N/A</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="239">
   <si>
     <t>Project_Type</t>
   </si>
@@ -775,6 +775,15 @@
   </si>
   <si>
     <t>Viraj Tondalkar</t>
+  </si>
+  <si>
+    <t>Added code for column title and duplicate container having 1 VGM number, missing for second container</t>
+  </si>
+  <si>
+    <t>No Doc No Load - US CR Process</t>
+  </si>
+  <si>
+    <t>Automate the entire process( data process + mail distributing to Bot)</t>
   </si>
 </sst>
 </file>
@@ -4404,12 +4413,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4481,7 +4490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -4527,7 +4536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
@@ -4573,7 +4582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -4711,7 +4720,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
@@ -4757,7 +4766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -4803,7 +4812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -4893,7 +4902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -4939,7 +4948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>24</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>24</v>
       </c>
@@ -5031,7 +5040,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>24</v>
       </c>
@@ -5123,7 +5132,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>24</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
@@ -5215,7 +5224,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -5261,7 +5270,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>24</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>24</v>
       </c>
@@ -5401,7 +5410,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
@@ -5447,7 +5456,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
@@ -5543,7 +5552,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
@@ -5591,7 +5600,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
@@ -5639,7 +5648,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5696,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
@@ -5731,7 +5740,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -5775,7 +5784,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
         <v>24</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -5868,7 +5877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
@@ -5956,7 +5965,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>24</v>
       </c>
@@ -6090,7 +6099,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
@@ -6136,7 +6145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="84" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>24</v>
       </c>
@@ -6182,7 +6191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
@@ -6228,7 +6237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>32</v>
       </c>
@@ -6276,7 +6285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6322,7 +6331,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>24</v>
       </c>
@@ -6366,7 +6375,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>24</v>
       </c>
@@ -6410,7 +6419,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>24</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
@@ -6588,7 +6597,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>24</v>
       </c>
@@ -6680,7 +6689,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:17" ht="21" x14ac:dyDescent="0.5">
       <c r="A50" s="16" t="s">
         <v>24</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>32</v>
       </c>
@@ -6872,7 +6881,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>24</v>
       </c>
@@ -6918,7 +6927,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="147" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="147" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>32</v>
       </c>
@@ -6964,7 +6973,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="63" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>32</v>
       </c>
@@ -7010,7 +7019,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>24</v>
       </c>
@@ -7056,7 +7065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>32</v>
       </c>
@@ -7102,7 +7111,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>24</v>
       </c>
@@ -7148,7 +7157,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>24</v>
       </c>
@@ -7192,7 +7201,7 @@
       <c r="O60" s="8"/>
       <c r="P60" s="7"/>
     </row>
-    <row r="61" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>24</v>
       </c>
@@ -7238,7 +7247,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>24</v>
       </c>
@@ -7280,7 +7289,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="1:17" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>18</v>
       </c>
@@ -7376,7 +7385,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
         <v>24</v>
       </c>
@@ -7402,7 +7411,7 @@
       <c r="O66" s="8"/>
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
         <v>24</v>
       </c>
@@ -7446,7 +7455,7 @@
       <c r="O67" s="8"/>
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
         <v>24</v>
       </c>
@@ -7490,7 +7499,7 @@
       <c r="O68" s="8"/>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
         <v>24</v>
       </c>
@@ -7536,57 +7545,97 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
+    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
+    <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q69" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="OPS ASSISTANCE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53 L51:M53 K54:M57 K58 K59:M60 M62 L70:M82 L63:M68 K61:K82" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53 L51:M53 K54:M57 K58 K59:M60 M62 L63:M68 K61:K69 K70:M82" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
       <formula1>"Work In Progrees, Complete, Pending"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M50 L58:M58 L61:M61 L62 L69:M69" xr:uid="{DE1DE406-F1E1-41EA-A363-3FFB7444524F}">

--- a/Archive/Automation Project listN.xlsx
+++ b/Archive/Automation Project listN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDCF57-EA73-4EB3-8021-B3B3AE2180F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4577629-0BF0-4C38-99AE-3C1E7F78CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Project_List Others Dept." sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$Q$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$Q$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project_List Others Dept.'!$A$2:$O$11</definedName>
     <definedName name="Slicer_Benefits_achieved">#N/A</definedName>
     <definedName name="Slicer_Project_Type">#N/A</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="222">
   <si>
     <t>Project_Type</t>
   </si>
@@ -314,21 +314,12 @@
     <t>HTTP://EPORT.SCCTCN.COM/QUERY/VESSELSCHEDULE</t>
   </si>
   <si>
-    <t>BREAK BULK REPORT FROM LARA SCREEN</t>
-  </si>
-  <si>
     <t xml:space="preserve">RE: DG CARGO AUDIT FILE </t>
   </si>
   <si>
     <t>HAPAG LLOYD</t>
   </si>
   <si>
-    <t xml:space="preserve">AUTO APPROVAL OF PCR AFTER CLOSING </t>
-  </si>
-  <si>
-    <t>AUTO REFUSAL OF PCR AFTER RECEIVING MAIL</t>
-  </si>
-  <si>
     <t>TRANSHIPMENT_LCR11.1 REPORT_EXCEL FILE CREATION</t>
   </si>
   <si>
@@ -338,15 +329,9 @@
     <t>AUTOMATE JOURNEY LEG RFI EMAILS</t>
   </si>
   <si>
-    <t xml:space="preserve">WEB PAGE REFRESH </t>
-  </si>
-  <si>
     <t>BAY PLAN ETD DATE CHECK MACRO</t>
   </si>
   <si>
-    <t>BAYPLAN TRACKER</t>
-  </si>
-  <si>
     <t xml:space="preserve">IDENTIFY BOOKING PARTY NAME </t>
   </si>
   <si>
@@ -368,14 +353,6 @@
     <t>ENHANCE THE EXISTING MACRO AS IT TAKES MORE TIME TO SEND EMAILS TO CUSTOMERS FROM LAPTOP AS COMPARED TO OFFICE DESKTOP</t>
   </si>
   <si>
-    <t xml:space="preserve">PCR'S HAVE 7 TABS WHICH SHOULD GET AUTOAPPROVED AFTER 24-36 HRS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHOULD READ MAILS RECEIVED FROM AGENCIES AND REFUSED REQUESTED TAB
-</t>
-  </si>
-  <si>
     <t>AUTOMATICALLY SENDING EMAIL NOTIFICATION TO CUSTOMERS AFTER CANCELLING THE BOOKING.</t>
   </si>
   <si>
@@ -385,13 +362,6 @@
     <t xml:space="preserve">AUTO ETD CHANGE IN BP TRACKER AS PER LARA VOYAGE SCHEDULE </t>
   </si>
   <si>
-    <t xml:space="preserve">PORTNET NEEDS TO REFRESHED TO KEEP ACTIVE SESSION
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCEL TRACKER </t>
-  </si>
-  <si>
     <t>IDENTIFY BOOKING PARTY NAME FOR BOOKINGS WHERE THE BOOKING PARTY NAME DID NOT GENERATE FROM LARA CARGO</t>
   </si>
   <si>
@@ -404,15 +374,9 @@
     <t>NEED TO ADD MORE CRITERIA</t>
   </si>
   <si>
-    <t>WIN- AUTAMATION TOOL</t>
-  </si>
-  <si>
     <t>GOSAVI AMIT</t>
   </si>
   <si>
-    <t>MAYUR NIMBALKAR</t>
-  </si>
-  <si>
     <t>NIDHEESH LAKSHMANAN</t>
   </si>
   <si>
@@ -425,9 +389,6 @@
     <t>MANOJ YADAV</t>
   </si>
   <si>
-    <t>RAVIKIRAN/ PRAMOD</t>
-  </si>
-  <si>
     <t>PRAMOD PATIL</t>
   </si>
   <si>
@@ -563,9 +524,6 @@
     <t>CNC DPS upload</t>
   </si>
   <si>
-    <t>Rupesh, John</t>
-  </si>
-  <si>
     <t>DTHC- China</t>
   </si>
   <si>
@@ -594,15 +552,6 @@
   </si>
   <si>
     <t>Rupesh</t>
-  </si>
-  <si>
-    <t>Language Translation throught tools i/o google.</t>
-  </si>
-  <si>
-    <t>PYTHON,EXCEL</t>
-  </si>
-  <si>
-    <t>Paul Carvalido</t>
   </si>
   <si>
     <t xml:space="preserve">Start to End auto process throught tool.
@@ -648,15 +597,6 @@
     <t>COSCO_CMA Comparison</t>
   </si>
   <si>
-    <t>TAT Report automation</t>
-  </si>
-  <si>
-    <t>TAT Percentage would be calculated automatically considering existing data in allocation sheets</t>
-  </si>
-  <si>
-    <t>15min</t>
-  </si>
-  <si>
     <t>Weekly Volume automation</t>
   </si>
   <si>
@@ -753,12 +693,6 @@
     <t xml:space="preserve">Balaganesh </t>
   </si>
   <si>
-    <t>Devendra</t>
-  </si>
-  <si>
-    <t>Joh Pillai</t>
-  </si>
-  <si>
     <t>Shaikh</t>
   </si>
   <si>
@@ -780,17 +714,29 @@
     <t>Added code for column title and duplicate container having 1 VGM number, missing for second container</t>
   </si>
   <si>
-    <t>No Doc No Load - US CR Process</t>
-  </si>
-  <si>
     <t>Automate the entire process( data process + mail distributing to Bot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Readiness - Automation of NDNL Cancellation Process </t>
+  </si>
+  <si>
+    <t>VGM missing _ Transhipment_06 &amp; 11.0</t>
+  </si>
+  <si>
+    <t>Cxml to xlsx and comparision with Harp</t>
+  </si>
+  <si>
+    <t>VBA, Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanned PDF to be converted into an editable </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,13 +827,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -968,7 +907,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,9 +965,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1038,22 +974,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1604,7 +1540,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Akhilesh CHAUHAN" refreshedDate="44784.627846875002" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{E9EAFC9A-9BBE-4EBF-BD38-0840CAE1A5FD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P85" sheet="Project_List Operations"/>
+    <worksheetSource ref="A1:P76" sheet="Project_List Operations"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Project_Type" numFmtId="0">
@@ -3935,292 +3871,292 @@
   <cols>
     <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.54296875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
-        <v>186</v>
+      <c r="A3" s="24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A4" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30" t="s">
+      <c r="A4" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>138</v>
+      <c r="E5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="33">
+        <v>2</v>
+      </c>
+      <c r="F10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="33">
+        <v>1</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E14" s="33">
         <v>1</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="34">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="33">
         <v>1</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F15" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="34">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F16" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="34">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.7">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="33">
         <v>1</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F17" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="33">
+        <v>1</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A11" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="C19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="33">
         <v>1</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F19" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="34">
-        <v>1</v>
-      </c>
-      <c r="F12" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="34">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="34">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="34">
-        <v>1</v>
-      </c>
-      <c r="F15" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="34">
-        <v>1</v>
-      </c>
-      <c r="F16" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="34">
-        <v>1</v>
-      </c>
-      <c r="F17" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="34">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="34">
-        <v>1</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1</v>
-      </c>
-    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="34">
+      <c r="A20" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="33">
         <v>15</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <v>15</v>
       </c>
     </row>
@@ -4341,70 +4277,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>148</v>
+      <c r="A3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="27"/>
+      <c r="A5" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>144</v>
+      <c r="A6" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
-        <v>145</v>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27" t="s">
-        <v>146</v>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
-        <v>147</v>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A11" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>149</v>
+      <c r="A11" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4414,11 +4350,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4478,10 +4414,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>13</v>
@@ -4504,13 +4440,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H2" s="18">
         <v>44551</v>
@@ -4519,7 +4455,7 @@
         <v>44552</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>22</v>
@@ -4547,10 +4483,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>26</v>
@@ -4565,7 +4501,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>22</v>
@@ -4596,7 +4532,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>26</v>
@@ -4611,7 +4547,7 @@
         <v>44621.894444444442</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>22</v>
@@ -4625,7 +4561,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="63" x14ac:dyDescent="0.35">
@@ -4633,22 +4569,22 @@
         <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>27</v>
@@ -4657,7 +4593,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>22</v>
@@ -4688,13 +4624,13 @@
         <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>27</v>
@@ -4703,7 +4639,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>22</v>
@@ -4717,7 +4653,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4725,22 +4661,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H7" s="18">
         <v>44553</v>
@@ -4749,21 +4685,21 @@
         <v>44555</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4771,22 +4707,22 @@
         <v>24</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H8" s="18">
         <v>44555</v>
@@ -4795,21 +4731,21 @@
         <v>44556</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4817,22 +4753,22 @@
         <v>24</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H9" s="18">
         <v>44556</v>
@@ -4841,21 +4777,21 @@
         <v>44558</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -4863,7 +4799,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>74</v>
@@ -4872,7 +4808,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>26</v>
@@ -4885,7 +4821,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>29</v>
@@ -4899,7 +4835,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4907,22 +4843,22 @@
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H11" s="18">
         <v>44559</v>
@@ -4931,21 +4867,21 @@
         <v>44560</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4953,22 +4889,22 @@
         <v>24</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H12" s="18">
         <v>44561</v>
@@ -4977,21 +4913,21 @@
         <v>44565</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4999,16 +4935,16 @@
         <v>24</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>26</v>
@@ -5023,21 +4959,21 @@
         <v>44573</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5045,16 +4981,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>26</v>
@@ -5069,21 +5005,21 @@
         <v>44580</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="42" x14ac:dyDescent="0.35">
@@ -5091,22 +5027,22 @@
         <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H15" s="18">
         <v>44580</v>
@@ -5115,21 +5051,21 @@
         <v>44582</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="42" x14ac:dyDescent="0.35">
@@ -5137,22 +5073,22 @@
         <v>24</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H16" s="18">
         <v>44583</v>
@@ -5161,21 +5097,21 @@
         <v>44583</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5183,7 +5119,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>79</v>
@@ -5192,13 +5128,13 @@
         <v>27</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H17" s="18">
         <v>44584</v>
@@ -5207,21 +5143,21 @@
         <v>44586</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5229,22 +5165,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H18" s="18">
         <v>44588</v>
@@ -5253,21 +5189,21 @@
         <v>44588</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5275,22 +5211,22 @@
         <v>24</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H19" s="18">
         <v>44586</v>
@@ -5299,21 +5235,21 @@
         <v>44588</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -5321,7 +5257,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>82</v>
@@ -5330,7 +5266,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>26</v>
@@ -5345,7 +5281,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>29</v>
@@ -5357,19 +5293,19 @@
         <v>29</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>83</v>
@@ -5378,82 +5314,84 @@
         <v>27</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="18">
+        <v>44574</v>
+      </c>
+      <c r="I21" s="18">
+        <v>44578</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N21" s="16"/>
-      <c r="O21" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="O21" s="16"/>
       <c r="P21" s="16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="18">
+        <v>44552</v>
+      </c>
+      <c r="I22" s="18">
+        <v>44554</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="N22" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="18">
-        <v>44574</v>
-      </c>
-      <c r="I22" s="18">
-        <v>44578</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5461,47 +5399,47 @@
         <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H23" s="18">
-        <v>44552</v>
+        <v>44554</v>
       </c>
       <c r="I23" s="18">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5509,47 +5447,47 @@
         <v>24</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H24" s="18">
-        <v>44554</v>
+        <v>44229</v>
       </c>
       <c r="I24" s="18">
-        <v>44558</v>
+        <v>44230</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5557,47 +5495,47 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H25" s="18">
-        <v>44229</v>
+        <v>44561</v>
       </c>
       <c r="I25" s="18">
-        <v>44230</v>
+        <v>44564</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5605,109 +5543,108 @@
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H26" s="18">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="I26" s="18">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H27" s="18">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="I27" s="18">
-        <v>44567</v>
+        <v>44596</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" s="16"/>
+        <v>45</v>
+      </c>
       <c r="P27" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>101</v>
+      <c r="D28" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>112</v>
@@ -5715,7 +5652,9 @@
       <c r="F28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="H28" s="16" t="s">
         <v>27</v>
       </c>
@@ -5723,43 +5662,43 @@
         <v>27</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="H29" s="16" t="s">
         <v>27</v>
       </c>
@@ -5767,92 +5706,87 @@
         <v>27</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>88</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C30" s="17"/>
       <c r="D30" s="16" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="18">
-        <v>44593</v>
-      </c>
-      <c r="I30" s="18">
-        <v>44596</v>
+        <v>26</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="P30" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="G31" s="16"/>
       <c r="H31" s="16" t="s">
         <v>27</v>
       </c>
@@ -5860,51 +5794,53 @@
         <v>27</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>22</v>
@@ -5921,24 +5857,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="84" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="H33" s="16" t="s">
         <v>27</v>
       </c>
@@ -5946,46 +5886,44 @@
         <v>27</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N33" s="16"/>
-      <c r="O33" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="O33" s="16"/>
       <c r="P33" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>106</v>
+        <v>86</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>27</v>
@@ -5994,43 +5932,45 @@
         <v>27</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="H35" s="16" t="s">
         <v>27</v>
       </c>
@@ -6038,283 +5978,275 @@
         <v>27</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="16"/>
+        <v>173</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="O35" s="16"/>
       <c r="P35" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="18">
+        <v>44700</v>
+      </c>
+      <c r="I36" s="18">
+        <v>44700</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>108</v>
+        <v>142</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="18"/>
       <c r="J37" s="16" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+        <v>173</v>
+      </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="84" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>109</v>
+        <v>142</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="G38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="18"/>
       <c r="J38" s="16" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
+        <v>173</v>
+      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>110</v>
+        <v>171</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+        <v>173</v>
+      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="16" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O40" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="N40" s="16"/>
+      <c r="O40" s="8"/>
       <c r="P40" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>96</v>
+      <c r="C41" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="18">
-        <v>44700</v>
-      </c>
-      <c r="I41" s="18">
-        <v>44700</v>
+      <c r="G41" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>22</v>
@@ -6326,70 +6258,72 @@
         <v>22</v>
       </c>
       <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="O41" s="8"/>
       <c r="P41" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="18">
+        <v>44875</v>
+      </c>
       <c r="J42" s="16" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>26</v>
@@ -6400,40 +6334,42 @@
       <c r="H43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="18"/>
+      <c r="I43" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="J43" s="16" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>179</v>
+        <v>160</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>26</v>
@@ -6448,185 +6384,196 @@
         <v>27</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
+      <c r="G45" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J45" s="16" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N45" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="O45" s="8"/>
       <c r="P45" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="63" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>162</v>
+        <v>177</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>185</v>
+        <v>50</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="8">
+        <v>44589</v>
+      </c>
+      <c r="I47" s="8">
+        <v>44592</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="147" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="8">
+        <v>44593</v>
+      </c>
+      <c r="I48" s="8">
+        <v>44593</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>22</v>
@@ -6640,170 +6587,168 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>174</v>
+        <v>54</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="8">
+        <v>44599</v>
+      </c>
+      <c r="I49" s="8">
+        <v>44601</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="21" x14ac:dyDescent="0.5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
-      <c r="P50" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P50" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>192</v>
+        <v>211</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="18" t="s">
         <v>27</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>191</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N51" s="16"/>
       <c r="O51" s="8"/>
       <c r="P51" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="63" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>27</v>
@@ -6812,179 +6757,167 @@
         <v>27</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="63" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>197</v>
+        <v>188</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+      <c r="P53" s="7"/>
+    </row>
+    <row r="54" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>51</v>
+        <v>192</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="8">
-        <v>44589</v>
-      </c>
-      <c r="I54" s="8">
-        <v>44592</v>
+        <v>26</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="147" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>55</v>
+        <v>199</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" s="8">
-        <v>44593</v>
-      </c>
-      <c r="I55" s="8">
-        <v>44593</v>
+        <v>117</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M55" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M55" s="8"/>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="63" x14ac:dyDescent="0.35">
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>56</v>
+        <v>201</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>20</v>
@@ -6993,16 +6926,16 @@
         <v>21</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="8">
-        <v>44599</v>
-      </c>
-      <c r="I56" s="8">
-        <v>44601</v>
+        <v>189</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>22</v>
@@ -7015,86 +6948,64 @@
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+      <c r="P56" s="7"/>
+    </row>
+    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M57" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F58" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>22</v>
@@ -7105,169 +7016,171 @@
       <c r="M58" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N58" s="16"/>
+      <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>205</v>
+        <v>212</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="H60" s="16">
+        <v>44853</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="7"/>
-    </row>
-    <row r="61" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P60" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="K61" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>218</v>
-      </c>
       <c r="D62" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>27</v>
@@ -7276,40 +7189,42 @@
         <v>27</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="M62" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="H63" s="16" t="s">
         <v>27</v>
@@ -7318,7 +7233,7 @@
         <v>27</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>22</v>
@@ -7331,317 +7246,61 @@
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
-      <c r="P63" s="7"/>
-    </row>
-    <row r="64" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
+      <c r="P63" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="7"/>
-    </row>
-    <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="7"/>
-    </row>
-    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="7"/>
-    </row>
-    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M67" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="7"/>
-    </row>
-    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="7"/>
-    </row>
-    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H69" s="13">
-        <v>44853</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M69" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="7"/>
-    </row>
-    <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="K71" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L71" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M71" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="7"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53 L51:M53 K54:M57 K58 K59:M60 M62 L63:M68 K61:K69 K70:M82" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K47:M50 K51 K52:M53 K2:K46 L45:M46 L56:L57 L64:M73 L59:M59 M55:M57 L62:M62 K54:K73" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
       <formula1>"Work In Progrees, Complete, Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:M50 L58:M58 L61:M61 L62 L69:M69" xr:uid="{DE1DE406-F1E1-41EA-A363-3FFB7444524F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:M51 L54:M54 L55 L2:M44 L58:M58 L60:M61 L63:M63" xr:uid="{DE1DE406-F1E1-41EA-A363-3FFB7444524F}">
       <formula1>"Under Testing, Complete, Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F82" xr:uid="{56032840-971D-4173-A1C8-7440F8C331B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F73" xr:uid="{56032840-971D-4173-A1C8-7440F8C331B9}">
       <formula1>"Simple, Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7660,7 +7319,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7817,7 +7476,7 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -7872,42 +7531,42 @@
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>44608</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>44608</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="K5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -7917,87 +7576,87 @@
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>44608</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>44608</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="22" t="s">
+      <c r="K6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>44628</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>44635</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="22" t="s">
+      <c r="K7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -8005,21 +7664,21 @@
         <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>69</v>
       </c>
       <c r="H8" s="13">
@@ -8029,20 +7688,20 @@
         <v>44763</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -8053,9 +7712,9 @@
         <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -8087,7 +7746,7 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -8098,9 +7757,9 @@
         <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -8132,7 +7791,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -8143,9 +7802,9 @@
         <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -8164,7 +7823,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>22</v>
@@ -8177,7 +7836,7 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -8185,13 +7844,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>63</v>
@@ -8209,7 +7868,7 @@
         <v>27</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>22</v>
@@ -8222,7 +7881,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -8230,22 +7889,22 @@
         <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>27</v>
@@ -8254,9 +7913,11 @@
         <v>27</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="K13" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L13" s="8" t="s">
         <v>28</v>
       </c>
@@ -8265,16 +7926,12 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -8282,12 +7939,8 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>

--- a/Archive/Automation Project listN.xlsx
+++ b/Archive/Automation Project listN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4577629-0BF0-4C38-99AE-3C1E7F78CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601B701-D00F-4AB4-BC0A-801099E15F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <sheet name="Project_List Others Dept." sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project_List Others Dept.'!$A$2:$O$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$P$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project_List Others Dept.'!$A$2:$O$10</definedName>
     <definedName name="Slicer_Benefits_achieved">#N/A</definedName>
     <definedName name="Slicer_Project_Type">#N/A</definedName>
     <definedName name="Slicer_Team">#N/A</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="212">
   <si>
     <t>Project_Type</t>
   </si>
@@ -329,9 +329,6 @@
     <t>AUTOMATE JOURNEY LEG RFI EMAILS</t>
   </si>
   <si>
-    <t>BAY PLAN ETD DATE CHECK MACRO</t>
-  </si>
-  <si>
     <t xml:space="preserve">IDENTIFY BOOKING PARTY NAME </t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>AUTOMATE RFI EMAILS SENT TO CARGO CARE TEAM</t>
   </si>
   <si>
-    <t xml:space="preserve">AUTO ETD CHANGE IN BP TRACKER AS PER LARA VOYAGE SCHEDULE </t>
-  </si>
-  <si>
     <t>IDENTIFY BOOKING PARTY NAME FOR BOOKINGS WHERE THE BOOKING PARTY NAME DID NOT GENERATE FROM LARA CARGO</t>
   </si>
   <si>
@@ -395,9 +389,6 @@
     <t xml:space="preserve">SACHIN THAKUR </t>
   </si>
   <si>
-    <t>RAVINDRA POOJARY</t>
-  </si>
-  <si>
     <t>AUTO DATA EXTRACTION FROM WEB SITE THROUGHT TOOL</t>
   </si>
   <si>
@@ -410,9 +401,6 @@
     <t>PYTHON,EXCEL, VBA</t>
   </si>
   <si>
-    <t>Under Discussion</t>
-  </si>
-  <si>
     <t>3-4 days</t>
   </si>
   <si>
@@ -428,9 +416,6 @@
     <t>AU COMPARISON</t>
   </si>
   <si>
-    <t>TO FETCH THE ETD OF ALL THE VESSEL SO THAT MANUAL EFFORTS ARE STOPPPED</t>
-  </si>
-  <si>
     <t>2-3 days</t>
   </si>
   <si>
@@ -522,12 +507,6 @@
   </si>
   <si>
     <t>CNC DPS upload</t>
-  </si>
-  <si>
-    <t>DTHC- China</t>
-  </si>
-  <si>
-    <t>Sameer karbelkar</t>
   </si>
   <si>
     <t>OOG Tracker</t>
@@ -576,9 +555,6 @@
     <t>To arrange in orderwise with specific vessel details into excel file.</t>
   </si>
   <si>
-    <t>Dashboard_</t>
-  </si>
-  <si>
     <t>BAY PLANE</t>
   </si>
   <si>
@@ -603,9 +579,6 @@
     <t>To Collect all simulation and amendment data from sharepoint and collating into common table format</t>
   </si>
   <si>
-    <t>20min</t>
-  </si>
-  <si>
     <t>OOG -OPS ASSISTANCE</t>
   </si>
   <si>
@@ -660,15 +633,6 @@
     <t>Arvind / Lokesh</t>
   </si>
   <si>
-    <t>Transition</t>
-  </si>
-  <si>
-    <t>Auto send report to respective person</t>
-  </si>
-  <si>
-    <t>Sharad karkera</t>
-  </si>
-  <si>
     <t>NO activity bug</t>
   </si>
   <si>
@@ -693,9 +657,6 @@
     <t xml:space="preserve">Balaganesh </t>
   </si>
   <si>
-    <t>Shaikh</t>
-  </si>
-  <si>
     <t>VGM missing _ Transhipment</t>
   </si>
   <si>
@@ -730,6 +691,15 @@
   </si>
   <si>
     <t xml:space="preserve">Scanned PDF to be converted into an editable </t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>INDIA PCR CLOSER MAIL TO BE AUTOMATED</t>
+  </si>
+  <si>
+    <t>SHAIKH Hussain</t>
   </si>
 </sst>
 </file>
@@ -829,15 +799,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="16"/>
       <color theme="1"/>
@@ -851,8 +812,16 @@
       <name val="Vani"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,8 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -901,13 +875,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,32 +949,84 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="8"/>
@@ -1224,16 +1251,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1269,7 +1296,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9429750" y="107950"/>
+              <a:off x="12865100" y="609600"/>
               <a:ext cx="1828800" cy="2546350"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1302,16 +1329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91178</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84828</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1347,7 +1374,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8642350" y="127000"/>
+              <a:off x="10896600" y="628650"/>
               <a:ext cx="1841500" cy="2574028"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1380,16 +1407,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>222251</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1425,8 +1452,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9429750" y="2832101"/>
-              <a:ext cx="1828800" cy="1441449"/>
+              <a:off x="12865100" y="3384551"/>
+              <a:ext cx="1828800" cy="1987549"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1458,16 +1485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>212849</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1503,8 +1530,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8661400" y="2857501"/>
-              <a:ext cx="1828800" cy="1403350"/>
+              <a:off x="10915650" y="3390900"/>
+              <a:ext cx="1828800" cy="1997199"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1538,9 +1565,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Akhilesh CHAUHAN" refreshedDate="44784.627846875002" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{E9EAFC9A-9BBE-4EBF-BD38-0840CAE1A5FD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Akhilesh CHAUHAN" refreshedDate="44880.672047800923" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{E9EAFC9A-9BBE-4EBF-BD38-0840CAE1A5FD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P76" sheet="Project_List Operations"/>
+    <worksheetSource ref="A1:P72" sheet="Project_List Operations"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Project_Type" numFmtId="0">
@@ -1552,7 +1579,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Team" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="11">
         <s v="DG"/>
         <s v="VGM"/>
         <s v="PCR"/>
@@ -1561,11 +1588,13 @@
         <s v="DDSM"/>
         <s v="BAY PLANE"/>
         <s v="Claim"/>
+        <s v="OOG -OPS ASSISTANCE"/>
+        <s v="Cargo Ops/Transhipment"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Idea Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="58">
+      <sharedItems containsBlank="1" count="69">
         <s v="TAT AUTOMATION _REPORT"/>
         <s v="VGM AUTOMATION-MISSING VGM CHASER REPORT"/>
         <s v="WEEKLY REPORT FORMAT &amp; WEEKLY REPORT PPT CREATION"/>
@@ -1585,22 +1614,15 @@
         <s v="FELIXSTOWE "/>
         <s v="SOUTHAMPTON"/>
         <s v="HTTP://EPORT.SCCTCN.COM/QUERY/VESSELSCHEDULE"/>
-        <s v="BREAK BULK REPORT FROM LARA SCREEN"/>
         <s v="RE: DG CARGO AUDIT FILE "/>
         <s v="ONE"/>
         <s v="COSCO"/>
         <s v="HAPAG LLOYD"/>
         <s v="MAERSK"/>
         <s v="CMA CGM"/>
-        <s v="AUTO APPROVAL OF PCR AFTER CLOSING "/>
-        <s v="AUTO REFUSAL OF PCR AFTER RECEIVING MAIL"/>
         <s v="TRANSHIPMENT_LCR11.1 REPORT_EXCEL FILE CREATION"/>
         <s v="AUTOMATE EMAIL NOTIFICATION SENT TO CUSTOMERS"/>
         <s v="AUTOMATE JOURNEY LEG RFI EMAILS"/>
-        <s v="AUTO CHANGE ETD IN BAYPLAN TRACKER"/>
-        <s v="WEB PAGE REFRESH "/>
-        <s v="BAY PLAN ETD DATE CHECK MACRO"/>
-        <s v="BAYPLAN TRACKER"/>
         <s v="IDENTIFY BOOKING PARTY NAME "/>
         <s v="LARA PML VS TERMINAL LOAD LIST COMPARISON "/>
         <s v="SUMMARIZATION OF MONITORING  AND SHIPMANAGER COUNT"/>
@@ -1612,18 +1634,36 @@
         <s v="CNC DPS upload"/>
         <s v="OOG Tracker"/>
         <s v="LTS Creation throught macro."/>
-        <s v="Language Translation throught tools i/o google."/>
         <s v="COSCO_CMA Comparison"/>
-        <s v="TAT Report automation"/>
         <s v="Weekly Volume automation"/>
         <s v="Request for creating a macro"/>
         <s v="Daily Productivity Count"/>
+        <s v="Reminder mail for approval (OOG cargo)"/>
+        <s v="reminder process for COD"/>
+        <s v="SERVICE NAME extraction"/>
+        <s v="Extraction of PDF"/>
+        <s v="NO activity bug"/>
+        <s v="VGM missing _ Transhipment"/>
+        <s v="Cxml to xlsx and comparision"/>
+        <s v="Edi_001 automation"/>
+        <s v="Cargo Readiness - Automation of NDNL Cancellation Process "/>
+        <s v="VGM missing _ Transhipment_06 &amp; 11.0"/>
+        <s v="Scanned PDF to be converted into an editable "/>
         <m/>
         <s v="MACRO ENHANCMENT" u="1"/>
+        <s v="AUTO APPROVAL OF PCR AFTER CLOSING " u="1"/>
+        <s v="AUTO REFUSAL OF PCR AFTER RECEIVING MAIL" u="1"/>
         <s v="NEED SOME AUTOMATION FOR NEW PROJECT - OPS ASSISTANCE" u="1"/>
+        <s v="WEB PAGE REFRESH " u="1"/>
         <s v="ETD MACRO" u="1"/>
+        <s v="TAT Report automation" u="1"/>
+        <s v="BAY PLAN ETD DATE CHECK MACRO" u="1"/>
+        <s v="BAYPLAN TRACKER" u="1"/>
+        <s v="Language Translation throught tools i/o google." u="1"/>
+        <s v="BREAK BULK REPORT FROM LARA SCREEN" u="1"/>
         <s v="WE HAVE EXCLE MACRO WHICH NEED ENHANCMENT" u="1"/>
         <s v="Transhipment process Auto" u="1"/>
+        <s v="AUTO CHANGE ETD IN BAYPLAN TRACKER" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Idea Description" numFmtId="0">
@@ -1639,7 +1679,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Start Date" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2021-02-02T00:00:00" maxDate="1900-01-08T09:50:04"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2021-02-02T00:00:00" maxDate="1900-01-09T17:50:04"/>
     </cacheField>
     <cacheField name="Complete Date" numFmtId="0">
       <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2021-02-03T00:00:00" maxDate="1900-01-08T10:50:04"/>
@@ -1650,18 +1690,18 @@
     <cacheField name="Coding Status" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
         <s v="Complete"/>
-        <s v="Work In Progrees"/>
         <s v="Pending"/>
         <m/>
+        <s v="Work In Progrees" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Testing Status" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
         <s v="Complete"/>
-        <s v="Work In Progrees"/>
         <s v="Under Testing"/>
         <s v="Pending"/>
         <m/>
+        <s v="Work In Progrees" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Current Status" numFmtId="0">
@@ -1671,7 +1711,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Remarks(Managers Comments)" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Benefits achieved" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -1691,7 +1731,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1720,10 +1760,10 @@
     <s v="4-5 days"/>
     <d v="2022-04-19T00:00:00"/>
     <s v="-"/>
-    <s v="MAYUR NIMBALKAR"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Work In Progrees"/>
+    <s v="Viraj Tondalkar"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Under Testing"/>
     <m/>
     <m/>
     <x v="0"/>
@@ -1794,7 +1834,7 @@
     <d v="2021-12-25T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1812,7 +1852,7 @@
     <d v="2021-12-26T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1830,7 +1870,7 @@
     <d v="2021-12-28T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1847,8 +1887,8 @@
     <s v="-"/>
     <s v="-"/>
     <s v="AMBETH"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="3"/>
     <s v="Pending"/>
     <m/>
     <m/>
@@ -1866,7 +1906,7 @@
     <d v="2021-12-30T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1884,7 +1924,7 @@
     <d v="2022-01-04T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1902,7 +1942,7 @@
     <d v="2022-01-12T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1920,7 +1960,7 @@
     <d v="2022-01-19T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1938,7 +1978,7 @@
     <d v="2022-01-21T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1956,7 +1996,7 @@
     <d v="2022-01-22T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1974,7 +2014,7 @@
     <d v="2022-01-25T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -1992,7 +2032,7 @@
     <d v="2022-01-27T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -2010,7 +2050,7 @@
     <d v="2022-01-27T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -2027,35 +2067,17 @@
     <s v="-"/>
     <s v="-"/>
     <s v="AMBETH"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="3"/>
     <s v="Pending"/>
     <s v="SHEKOU"/>
     <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="19"/>
-    <s v="-"/>
-    <s v="EXCEL,VBA"/>
-    <s v="Complex"/>
-    <m/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="PRAMOD PATIL"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <s v="Under Discussion"/>
     <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="20"/>
+    <x v="19"/>
     <s v="-"/>
     <s v="EXCEL,VBA"/>
     <s v="Simple"/>
@@ -2073,7 +2095,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="21"/>
+    <x v="20"/>
     <s v="-"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2082,7 +2104,7 @@
     <d v="2021-12-24T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <s v="PARTNERS VESSELS"/>
     <m/>
@@ -2091,7 +2113,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="22"/>
+    <x v="21"/>
     <s v="AUTO DATA EXTRACTION FROM WEB SITE THROUGHT TOOL"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2100,7 +2122,7 @@
     <d v="2021-12-28T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <s v="PARTNERS VESSELS"/>
     <m/>
@@ -2109,7 +2131,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="23"/>
+    <x v="22"/>
     <s v="AUTO DATA EXTRACTION FROM WEB SITE THROUGHT TOOL"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2118,7 +2140,7 @@
     <d v="2021-02-03T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <s v="PARTNERS VESSELS"/>
     <m/>
@@ -2127,7 +2149,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="24"/>
+    <x v="23"/>
     <s v="AUTO DATA EXTRACTION FROM WEB SITE THROUGHT TOOL"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2136,7 +2158,7 @@
     <d v="2022-01-03T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <s v="PARTNERS VESSELS"/>
     <m/>
@@ -2145,7 +2167,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="25"/>
+    <x v="24"/>
     <s v="-"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2154,7 +2176,7 @@
     <d v="2022-01-06T00:00:00"/>
     <s v="LEO RODRIGUES"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <s v="PARTNERS VESSELS"/>
     <m/>
@@ -2163,43 +2185,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="26"/>
-    <s v="PCR'S HAVE 7 TABS WHICH SHOULD GET AUTOAPPROVED AFTER 24-36 HRS_x000a_"/>
-    <s v="WIN- AUTAMATION TOOL"/>
-    <s v="Complex"/>
-    <m/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="RAVIKIRAN/ PRAMOD"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="27"/>
-    <s v="SHOULD READ MAILS RECEIVED FROM AGENCIES AND REFUSED REQUESTED TAB_x000a_"/>
-    <s v="WIN- AUTAMATION TOOL"/>
-    <s v="Complex"/>
-    <m/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="RAVIKIRAN/ PRAMOD"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="28"/>
+    <x v="25"/>
     <s v="-"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Simple"/>
@@ -2217,7 +2203,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="29"/>
+    <x v="26"/>
     <s v="AUTOMATICALLY SENDING EMAIL NOTIFICATION TO CUSTOMERS AFTER CANCELLING THE BOOKING."/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2235,7 +2221,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="30"/>
+    <x v="27"/>
     <s v="AUTOMATE RFI EMAILS SENT TO CARGO CARE TEAM"/>
     <s v="PYTHON, EXCEL"/>
     <m/>
@@ -2251,81 +2237,9 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="31"/>
-    <s v="AUTO ETD CHANGE IN BP TRACKER AS PER LARA VOYAGE SCHEDULE "/>
-    <s v="EXCEL,VBA"/>
-    <s v="Complex"/>
-    <m/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="RAVINDRA POOJARY"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <s v="Under Discussion"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="32"/>
-    <s v="PORTNET NEEDS TO REFRESHED TO KEEP ACTIVE SESSION_x000a_"/>
-    <s v="PYTHON, EXCEL"/>
-    <s v="Simple"/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="PRAMOD PATIL"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="33"/>
-    <s v="TO FETCH THE ETD OF ALL THE VESSEL SO THAT MANUAL EFFORTS ARE STOPPPED"/>
-    <s v="EXCEL,VBA"/>
-    <s v="Complex"/>
-    <m/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="Kishore"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="34"/>
-    <s v="EXCEL TRACKER "/>
-    <s v="EXCEL,VBA"/>
-    <s v="Complex"/>
-    <m/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="RAVINDRA POOJARY"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="35"/>
+    <x v="28"/>
     <s v="IDENTIFY BOOKING PARTY NAME FOR BOOKINGS WHERE THE BOOKING PARTY NAME DID NOT GENERATE FROM LARA CARGO"/>
     <s v="EXCEL,VBA"/>
     <s v="Simple"/>
@@ -2343,7 +2257,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="36"/>
+    <x v="29"/>
     <s v="COMPARE AND PROVIDE OUTPUT IN THE DESIRED FORMAT FOR CHASING CUSTOMERS OR AGENCY WHILE PERFORMING PRE &amp; POST VESSEL CLEAN UP CHECKS"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2361,7 +2275,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="29"/>
+    <x v="26"/>
     <s v="HIGHLIGHT THE NOTE SECTION WITH CONTAINER NUMBER PLACE CHANGES."/>
     <s v="PYTHON, EXCEL"/>
     <s v="Simple"/>
@@ -2379,7 +2293,7 @@
   <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="36"/>
+    <x v="29"/>
     <s v="NEED TO ADD MORE CRITERIA"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2388,7 +2302,7 @@
     <s v="-"/>
     <s v="NIDHEESH LAKSHMANAN"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <s v="AU COMPARISON"/>
     <m/>
@@ -2397,7 +2311,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="37"/>
+    <x v="30"/>
     <s v="-"/>
     <s v="EXCEL,VBA"/>
     <s v="Simple"/>
@@ -2415,7 +2329,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <x v="38"/>
+    <x v="31"/>
     <s v="Automation for merging the multiple pdf into single pdf file"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2424,7 +2338,7 @@
     <m/>
     <s v="Saddam"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -2433,7 +2347,7 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <x v="39"/>
+    <x v="32"/>
     <s v="Automation to TBI report (Detention &amp; Demurrage)"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2442,7 +2356,7 @@
     <m/>
     <s v="Saddam"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -2451,7 +2365,7 @@
   <r>
     <x v="1"/>
     <x v="6"/>
-    <x v="40"/>
+    <x v="33"/>
     <s v="Start to End auto process throught tool._x000a_"/>
     <s v="EXCEL,VBA,Python"/>
     <s v="Complex"/>
@@ -2460,7 +2374,7 @@
     <s v="-"/>
     <s v="Kishore"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <s v="Under Testing"/>
     <m/>
     <m/>
@@ -2469,7 +2383,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="41"/>
+    <x v="34"/>
     <s v="To get count of mail, being send in days with all specific details."/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2477,8 +2391,8 @@
     <m/>
     <m/>
     <s v="Suraj"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="3"/>
     <s v="Pending"/>
     <m/>
     <m/>
@@ -2487,7 +2401,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="42"/>
+    <x v="35"/>
     <s v="Missing Voyage"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Simple"/>
@@ -2496,8 +2410,8 @@
     <s v="-"/>
     <s v="SACHIN THAKUR "/>
     <x v="0"/>
-    <x v="2"/>
-    <s v="Under Testing"/>
+    <x v="0"/>
+    <s v="Complete"/>
     <m/>
     <m/>
     <x v="1"/>
@@ -2505,17 +2419,17 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="43"/>
+    <x v="36"/>
     <s v="To arrange in orderwise with specific vessel details into excel file."/>
-    <s v="PYTHON, EXCEL"/>
+    <s v="VBA, Excel"/>
+    <s v="Complex"/>
+    <s v="3-4 days"/>
     <s v="-"/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="Rupesh, John"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
+    <d v="2022-11-10T00:00:00"/>
+    <s v="Rupesh"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Under Testing"/>
     <m/>
     <m/>
     <x v="1"/>
@@ -2523,7 +2437,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="44"/>
+    <x v="37"/>
     <s v="-"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2531,9 +2445,9 @@
     <s v="-"/>
     <s v="-"/>
     <s v="LEO RODRIGUES"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
     <m/>
     <m/>
     <x v="1"/>
@@ -2541,7 +2455,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="45"/>
+    <x v="38"/>
     <s v="LTS_Data migration( with multiple condition) from various resources like PDF and excel.."/>
     <s v="PYTHON,EXCEL, VBA"/>
     <s v="Complex"/>
@@ -2549,35 +2463,17 @@
     <s v="-"/>
     <s v="-"/>
     <s v="Rupesh"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="3"/>
     <s v="Pending"/>
     <m/>
     <m/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="46"/>
-    <s v="Language Translation throught tools i/o google."/>
-    <s v="PYTHON,EXCEL"/>
-    <s v="Complex"/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="Paul Carvalido"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <m/>
-    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="47"/>
+    <x v="39"/>
     <s v="AUTO DATA EXTRACTION FROM WEB SITE THROUGHT TOOL"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2585,9 +2481,9 @@
     <s v="-"/>
     <s v="-"/>
     <s v="LEO RODRIGUES"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Work In Progrees"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Under Testing"/>
     <s v="Comparison"/>
     <m/>
     <x v="1"/>
@@ -2595,25 +2491,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="48"/>
-    <s v="TAT Percentage would be calculated automatically considering existing data in allocation sheets"/>
-    <s v="PYTHON, EXCEL"/>
-    <s v="Complex"/>
-    <s v="1-2 days"/>
-    <s v="-"/>
-    <s v="-"/>
-    <s v="Suraj"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="Pending"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="49"/>
+    <x v="40"/>
     <s v="To Collect all simulation and amendment data from sharepoint and collating into common table format"/>
     <s v="PYTHON, EXCEL"/>
     <s v="Complex"/>
@@ -2621,8 +2499,8 @@
     <s v="-"/>
     <s v="-"/>
     <s v="Suraj"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="3"/>
     <s v="Pending"/>
     <m/>
     <m/>
@@ -2631,7 +2509,7 @@
   <r>
     <x v="1"/>
     <x v="7"/>
-    <x v="50"/>
+    <x v="41"/>
     <s v="Get capture the users productivity (In terms of count of mail) on daily basis throught email sent."/>
     <s v="EXCEL/VBA"/>
     <s v="Simple"/>
@@ -2649,7 +2527,7 @@
   <r>
     <x v="2"/>
     <x v="7"/>
-    <x v="51"/>
+    <x v="42"/>
     <s v="Thank you and would like to confirm that the macro has pulled the data from inbox and is working._x000a_However check if it is possible to get the result basis BL no. and date sent against each claim handler._x000a_"/>
     <s v="EXCEL/VBA"/>
     <s v="Simple"/>
@@ -2667,7 +2545,7 @@
   <r>
     <x v="2"/>
     <x v="7"/>
-    <x v="51"/>
+    <x v="42"/>
     <s v="Get users email count based on customise date &amp; Fresh|Old Data along with generic mail box_x000a_"/>
     <s v="EXCEL/VBA"/>
     <s v="Simple"/>
@@ -2683,306 +2561,252 @@
     <x v="2"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="43"/>
+    <s v="Send mails for approval regarding OOG cargo( with chain mailling)"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Complex"/>
+    <s v="1-2 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="LEO RODRIGUES"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="35"/>
+    <s v="Need to add first POL in subject line"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Simple"/>
+    <s v="1-2 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="SACHIN THAKUR "/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="44"/>
+    <s v="Sending reminder to partner manually which is time consuming"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Complex"/>
+    <s v="4-5 hrs"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="Jessica GOMES"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="3"/>
-    <x v="8"/>
+    <x v="45"/>
+    <s v="-"/>
+    <s v="EXCEL/VBA"/>
+    <s v="Simple"/>
+    <s v="4 hrs"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="Deep Tripathi"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="46"/>
+    <s v="Extraction of PDF (BL &amp; Invoice) from outlook"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Complex"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="Prince"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Under Testing"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="47"/>
+    <s v="bug: due to outlook error ( server not find)"/>
+    <s v="EXCEL/VBA"/>
+    <s v="Simple"/>
+    <s v="4 hrs"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="Deep Tripathi"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="48"/>
+    <s v="VGM missing _ Transhipment"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Simple"/>
+    <s v="3-4 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="SACHIN THAKUR "/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="49"/>
+    <s v="Cxml to xlsx and comparision with Harp"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Simple"/>
+    <s v="1-2 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="MANOJ YADAV"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Under Testing"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="50"/>
+    <s v="Edi_001 automation"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Complex"/>
+    <s v="4-5 days"/>
+    <n v="44853"/>
+    <s v="-"/>
+    <s v="Viraj Tondalkar"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Under Testing"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="48"/>
+    <s v="Added code for column title and duplicate container having 1 VGM number, missing for second container"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Simple"/>
+    <s v="1-2 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="SACHIN THAKUR "/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="51"/>
+    <s v="Automate the entire process( data process + mail distributing to Bot)"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Simple"/>
+    <s v="2-3 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="Deep Tripathi"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Under Testing"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
     <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <s v="VGM missing _ Transhipment_06 &amp; 11.0"/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Simple"/>
+    <s v="3-4 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="SACHIN THAKUR "/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="53"/>
+    <s v="Scanned PDF to be converted into an editable "/>
+    <s v="PYTHON, EXCEL"/>
+    <s v="Simple"/>
+    <s v="1-2 days"/>
+    <s v="-"/>
+    <s v="-"/>
+    <s v="SALVI SAMEER"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Complete"/>
+    <m/>
+    <m/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="10"/>
+    <x v="54"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -2993,18 +2817,18 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F8684E-F30C-4879-BD78-8FECD61DF8F6}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A4:F20" firstHeaderRow="1" firstDataRow="2" firstDataCol="4"/>
+  <location ref="A4:H53" firstHeaderRow="1" firstDataRow="2" firstDataCol="4"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="4">
-        <item x="2"/>
-        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="9">
+      <items count="11">
         <item x="3"/>
         <item x="0"/>
         <item x="4"/>
@@ -3012,12 +2836,14 @@
         <item x="1"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="10"/>
+        <item x="7"/>
         <item x="8"/>
-        <item x="7"/>
+        <item x="9"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="59">
+      <items count="70">
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
@@ -3025,57 +2851,68 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item m="1" x="56"/>
+        <item m="1" x="68"/>
+        <item m="1" x="57"/>
         <item x="26"/>
+        <item x="27"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="65"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="21"/>
+        <item m="1" x="60"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="8"/>
+        <item x="28"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="15"/>
+        <item m="1" x="55"/>
+        <item x="23"/>
+        <item m="1" x="58"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="30"/>
+        <item x="0"/>
+        <item x="25"/>
+        <item x="1"/>
+        <item m="1" x="66"/>
+        <item m="1" x="59"/>
+        <item x="2"/>
         <item x="31"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="30"/>
+        <item x="32"/>
         <item x="33"/>
         <item x="34"/>
-        <item x="19"/>
-        <item x="3"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item m="1" x="55"/>
-        <item x="16"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="8"/>
+        <item m="1" x="67"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item m="1" x="64"/>
+        <item x="54"/>
         <item x="35"/>
-        <item x="4"/>
-        <item x="36"/>
-        <item x="15"/>
-        <item m="1" x="53"/>
-        <item x="24"/>
-        <item m="1" x="54"/>
-        <item x="10"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="37"/>
-        <item x="0"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item m="1" x="56"/>
-        <item x="32"/>
-        <item x="2"/>
-        <item x="38"/>
         <item x="39"/>
+        <item m="1" x="61"/>
         <item x="40"/>
         <item x="41"/>
-        <item m="1" x="57"/>
+        <item x="42"/>
         <item x="43"/>
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
-        <item x="52"/>
-        <item x="42"/>
         <item x="47"/>
         <item x="48"/>
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3089,18 +2926,18 @@
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="4">
         <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
       <items count="6">
         <item x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
+        <item m="1" x="4"/>
+        <item x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3123,35 +2960,7 @@
     <field x="10"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-      <x/>
-      <x/>
-      <x v="10"/>
-    </i>
-    <i r="3">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x/>
-      <x v="24"/>
-    </i>
-    <i r="3">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-      <x/>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-      <x/>
-      <x v="36"/>
-    </i>
+  <rowItems count="48">
     <i>
       <x v="2"/>
       <x/>
@@ -3167,6 +2976,95 @@
     <i r="3">
       <x v="25"/>
     </i>
+    <i r="3">
+      <x v="60"/>
+    </i>
+    <i r="3">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+      <x v="64"/>
+    </i>
+    <i r="3">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="16"/>
+    </i>
+    <i r="3">
+      <x v="17"/>
+    </i>
+    <i r="3">
+      <x v="19"/>
+    </i>
+    <i r="3">
+      <x v="20"/>
+    </i>
+    <i r="3">
+      <x v="26"/>
+    </i>
+    <i r="3">
+      <x v="28"/>
+    </i>
+    <i r="3">
+      <x v="30"/>
+    </i>
+    <i r="3">
+      <x v="31"/>
+    </i>
+    <i r="3">
+      <x v="33"/>
+    </i>
+    <i r="3">
+      <x v="34"/>
+    </i>
+    <i r="3">
+      <x v="47"/>
+    </i>
+    <i r="3">
+      <x v="48"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+      <x v="21"/>
+    </i>
+    <i r="3">
+      <x v="22"/>
+    </i>
+    <i r="3">
+      <x v="45"/>
+    </i>
+    <i r="3">
+      <x v="49"/>
+    </i>
+    <i r="3">
+      <x v="55"/>
+    </i>
     <i r="1">
       <x v="3"/>
       <x/>
@@ -3178,10 +3076,53 @@
     <i r="3">
       <x v="41"/>
     </i>
+    <i r="3">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x/>
+      <x v="38"/>
+    </i>
+    <i r="3">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x/>
+      <x v="42"/>
+    </i>
+    <i r="3">
+      <x v="43"/>
+    </i>
+    <i r="3">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x/>
+      <x v="44"/>
+    </i>
     <i r="1">
       <x v="8"/>
       <x/>
       <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+      <x/>
+      <x v="58"/>
+    </i>
+    <i r="3">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+      <x/>
+      <x v="63"/>
+    </i>
+    <i r="3">
+      <x v="67"/>
     </i>
     <i t="grand">
       <x/>
@@ -3190,9 +3131,15 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -3201,58 +3148,58 @@
   <dataFields count="1">
     <dataField name="Count of Coding Status" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="37">
-    <format dxfId="36">
+  <formats count="39">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="37">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="36">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="33">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="31">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="30">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="28">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="27">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3268,7 +3215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3282,7 +3229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3319,7 +3266,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3337,7 +3284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3349,48 +3296,48 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="15">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="14">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="12">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="11">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3406,7 +3353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3420,7 +3367,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3457,7 +3404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3475,7 +3422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3487,15 +3434,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
+    </format>
     <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -3517,16 +3470,18 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1909226453">
-      <items count="9">
+      <items count="11">
+        <i x="6" s="1"/>
+        <i x="9" s="1"/>
         <i x="3" s="1"/>
         <i x="7" s="1"/>
+        <i x="5" s="1"/>
         <i x="0" s="1"/>
+        <i x="8" s="1"/>
+        <i x="4" s="1"/>
         <i x="2" s="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
+        <i x="1" s="1"/>
+        <i x="10" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -3541,10 +3496,10 @@
   <data>
     <tabular pivotCacheId="1909226453">
       <items count="4">
-        <i x="2" s="1"/>
-        <i x="0" s="1"/>
+        <i x="2"/>
+        <i x="0"/>
         <i x="1" s="1"/>
-        <i x="3" s="1" nd="1"/>
+        <i x="3" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -3578,10 +3533,10 @@
     <tabular pivotCacheId="1909226453">
       <items count="5">
         <i x="0" s="1"/>
-        <i x="3"/>
-        <i x="2"/>
-        <i x="1"/>
-        <i x="4" nd="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -3590,7 +3545,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Team" xr10:uid="{FE1C6D78-2DCD-45D3-AFF0-77D93547DDCF}" cache="Slicer_Team" caption="Team" rowHeight="241300"/>
+  <slicer name="Team" xr10:uid="{FE1C6D78-2DCD-45D3-AFF0-77D93547DDCF}" cache="Slicer_Team" caption="Team" startItem="3" rowHeight="241300"/>
   <slicer name="Project_Type" xr10:uid="{A13A689A-3C98-4E45-9640-D933ECA123EA}" cache="Slicer_Project_Type" caption="Project_Type" rowHeight="241300"/>
   <slicer name="Benefits achieved" xr10:uid="{145780D4-C9C8-4274-801C-6F721C4216FB}" cache="Slicer_Benefits_achieved" caption="Benefits achieved" rowHeight="241300"/>
   <slicer name="Testing Status" xr10:uid="{E4A812D9-E4C9-4752-9541-E82155B25617}" cache="Slicer_Testing_Status" caption="Testing Status" rowHeight="241300"/>
@@ -3861,393 +3816,950 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FABFB24-CB89-4896-B9DD-C57B886DDF99}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:F59"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="47.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A4" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A4" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A5" s="29" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="E5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="33">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="33">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30" t="s">
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="33">
-        <v>1</v>
-      </c>
-      <c r="F8" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30" t="s">
+      <c r="C12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32">
+        <v>1</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32">
+        <v>1</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32">
+        <v>1</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32">
+        <v>1</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32">
+        <v>1</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32">
+        <v>1</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32">
+        <v>1</v>
+      </c>
+      <c r="H27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32">
+        <v>1</v>
+      </c>
+      <c r="H28" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32">
+        <v>1</v>
+      </c>
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32">
+        <v>1</v>
+      </c>
+      <c r="H30" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32">
+        <v>1</v>
+      </c>
+      <c r="H31" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32">
+        <v>1</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32">
+        <v>1</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32">
+        <v>1</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32">
+        <v>1</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="32">
+        <v>1</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32">
+        <v>1</v>
+      </c>
+      <c r="H42" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32">
+        <v>1</v>
+      </c>
+      <c r="H43" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32">
+        <v>1</v>
+      </c>
+      <c r="H44" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32">
+        <v>1</v>
+      </c>
+      <c r="H45" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32">
+        <v>1</v>
+      </c>
+      <c r="H46" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32">
+        <v>1</v>
+      </c>
+      <c r="H47" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="33">
-        <v>2</v>
-      </c>
-      <c r="F10" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="33">
-        <v>1</v>
-      </c>
-      <c r="F12" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="33">
-        <v>1</v>
-      </c>
-      <c r="F13" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="33">
-        <v>1</v>
-      </c>
-      <c r="F14" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="33">
-        <v>1</v>
-      </c>
-      <c r="F15" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="33">
-        <v>1</v>
-      </c>
-      <c r="F16" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="33">
-        <v>1</v>
-      </c>
-      <c r="F17" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="33">
-        <v>1</v>
-      </c>
-      <c r="F18" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="C48" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="33">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="33">
-        <v>15</v>
-      </c>
-      <c r="F20" s="33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="E48" s="32">
+        <v>1</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="32">
+        <v>1</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="32">
+        <v>1</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="32">
+        <v>1</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="32">
+        <v>1</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.7">
+      <c r="A53" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="32">
+        <v>16</v>
+      </c>
+      <c r="F53" s="32">
+        <v>5</v>
+      </c>
+      <c r="G53" s="32">
+        <v>26</v>
+      </c>
+      <c r="H53" s="32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+    </row>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -4266,8 +4778,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4277,70 +4789,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="25"/>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-    </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="27" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="26"/>
-    </row>
-    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="26" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A11" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A11" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4350,11 +4862,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4414,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O1" s="14" t="s">
         <v>13</v>
@@ -4440,13 +4952,13 @@
         <v>27</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H2" s="18">
         <v>44551</v>
@@ -4455,7 +4967,7 @@
         <v>44552</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>22</v>
@@ -4483,10 +4995,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>26</v>
@@ -4501,16 +5013,16 @@
         <v>27</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -4532,7 +5044,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>26</v>
@@ -4547,7 +5059,7 @@
         <v>44621.894444444442</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>22</v>
@@ -4561,7 +5073,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="63" x14ac:dyDescent="0.35">
@@ -4569,22 +5081,22 @@
         <v>32</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>27</v>
@@ -4593,7 +5105,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>22</v>
@@ -4624,13 +5136,13 @@
         <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>27</v>
@@ -4639,7 +5151,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>22</v>
@@ -4653,7 +5165,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4661,22 +5173,22 @@
         <v>24</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H7" s="18">
         <v>44553</v>
@@ -4685,21 +5197,21 @@
         <v>44555</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4707,22 +5219,22 @@
         <v>24</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H8" s="18">
         <v>44555</v>
@@ -4731,21 +5243,21 @@
         <v>44556</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4753,22 +5265,22 @@
         <v>24</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H9" s="18">
         <v>44556</v>
@@ -4777,21 +5289,21 @@
         <v>44558</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -4799,7 +5311,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>74</v>
@@ -4808,7 +5320,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>26</v>
@@ -4821,7 +5333,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>29</v>
@@ -4835,7 +5347,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4843,22 +5355,22 @@
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H11" s="18">
         <v>44559</v>
@@ -4867,21 +5379,21 @@
         <v>44560</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4889,22 +5401,22 @@
         <v>24</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H12" s="18">
         <v>44561</v>
@@ -4913,21 +5425,21 @@
         <v>44565</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4935,16 +5447,16 @@
         <v>24</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>26</v>
@@ -4959,21 +5471,21 @@
         <v>44573</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -4981,16 +5493,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>26</v>
@@ -5005,21 +5517,21 @@
         <v>44580</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="42" x14ac:dyDescent="0.35">
@@ -5027,22 +5539,22 @@
         <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H15" s="18">
         <v>44580</v>
@@ -5051,21 +5563,21 @@
         <v>44582</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="42" x14ac:dyDescent="0.35">
@@ -5073,22 +5585,22 @@
         <v>24</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16" s="18">
         <v>44583</v>
@@ -5097,21 +5609,21 @@
         <v>44583</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5119,7 +5631,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>79</v>
@@ -5128,13 +5640,13 @@
         <v>27</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H17" s="18">
         <v>44584</v>
@@ -5143,21 +5655,21 @@
         <v>44586</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5165,22 +5677,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H18" s="18">
         <v>44588</v>
@@ -5189,21 +5701,21 @@
         <v>44588</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5211,22 +5723,22 @@
         <v>24</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H19" s="18">
         <v>44586</v>
@@ -5235,21 +5747,21 @@
         <v>44588</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -5257,7 +5769,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>82</v>
@@ -5266,7 +5778,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>26</v>
@@ -5281,7 +5793,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>29</v>
@@ -5293,11 +5805,11 @@
         <v>29</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5314,13 +5826,13 @@
         <v>27</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H21" s="18">
         <v>44574</v>
@@ -5329,7 +5841,7 @@
         <v>44578</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>22</v>
@@ -5343,7 +5855,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5351,7 +5863,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>41</v>
@@ -5360,13 +5872,13 @@
         <v>27</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H22" s="18">
         <v>44552</v>
@@ -5375,23 +5887,23 @@
         <v>44554</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O22" s="16"/>
       <c r="P22" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5399,22 +5911,22 @@
         <v>24</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H23" s="18">
         <v>44554</v>
@@ -5423,23 +5935,23 @@
         <v>44558</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5447,22 +5959,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H24" s="18">
         <v>44229</v>
@@ -5471,23 +5983,23 @@
         <v>44230</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5495,22 +6007,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H25" s="18">
         <v>44561</v>
@@ -5519,23 +6031,23 @@
         <v>44564</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -5543,7 +6055,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>44</v>
@@ -5552,13 +6064,13 @@
         <v>27</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H26" s="18">
         <v>44564</v>
@@ -5567,23 +6079,23 @@
         <v>44567</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.5">
@@ -5600,13 +6112,13 @@
         <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H27" s="18">
         <v>44593</v>
@@ -5615,7 +6127,7 @@
         <v>44596</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>22</v>
@@ -5630,7 +6142,7 @@
         <v>45</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="42" x14ac:dyDescent="0.35">
@@ -5638,22 +6150,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>27</v>
@@ -5662,7 +6174,7 @@
         <v>27</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>22</v>
@@ -5684,20 +6196,20 @@
         <v>24</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>27</v>
@@ -5706,7 +6218,7 @@
         <v>27</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>22</v>
@@ -5723,24 +6235,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16" t="s">
-        <v>98</v>
+      <c r="C30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="16"/>
       <c r="H30" s="16" t="s">
         <v>27</v>
       </c>
@@ -5748,26 +6264,24 @@
         <v>27</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N30" s="16"/>
-      <c r="O30" s="16" t="s">
-        <v>115</v>
-      </c>
+      <c r="O30" s="16"/>
       <c r="P30" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="84" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -5775,18 +6289,20 @@
         <v>92</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>121</v>
+        <v>89</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="H31" s="16" t="s">
         <v>27</v>
       </c>
@@ -5794,38 +6310,38 @@
         <v>27</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>99</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>21</v>
@@ -5840,7 +6356,7 @@
         <v>27</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>22</v>
@@ -5857,27 +6373,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="84" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>27</v>
@@ -5886,53 +6402,55 @@
         <v>27</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="O33" s="16"/>
       <c r="P33" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>27</v>
+      <c r="G34" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="18">
+        <v>44700</v>
+      </c>
+      <c r="I34" s="18">
+        <v>44700</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>22</v>
@@ -5946,212 +6464,204 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>102</v>
+        <v>137</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="16" t="s">
+      <c r="G35" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="I35" s="18"/>
       <c r="J35" s="16" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="O35" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
       <c r="P35" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>91</v>
+        <v>137</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="D36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="18">
-        <v>44700</v>
-      </c>
-      <c r="I36" s="18">
-        <v>44700</v>
-      </c>
+      <c r="I36" s="18"/>
       <c r="J36" s="16" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="J37" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="K37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>173</v>
-      </c>
       <c r="M37" s="16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>27</v>
-      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N38" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="N38" s="16"/>
       <c r="O38" s="8"/>
       <c r="P38" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>163</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>27</v>
@@ -6160,84 +6670,90 @@
         <v>27</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="N39" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="N39" s="16"/>
       <c r="O39" s="8"/>
       <c r="P39" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="18">
+        <v>44875</v>
+      </c>
       <c r="J40" s="16" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="16"/>
+        <v>165</v>
+      </c>
+      <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>116</v>
+        <v>26</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>27</v>
@@ -6246,7 +6762,7 @@
         <v>27</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>22</v>
@@ -6257,48 +6773,48 @@
       <c r="M41" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="16"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="18">
-        <v>44875</v>
+      <c r="I42" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="M42" s="16" t="s">
         <v>29</v>
@@ -6306,85 +6822,87 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="I43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="J43" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="N43" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="O43" s="8"/>
       <c r="P43" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>161</v>
+        <v>169</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="I44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="J44" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>29</v>
@@ -6398,118 +6916,113 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>111</v>
+        <v>49</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="H45" s="8">
+        <v>44589</v>
+      </c>
+      <c r="I45" s="8">
+        <v>44592</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N45" s="16" t="s">
-        <v>175</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="63" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="147" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="H46" s="8">
+        <v>44593</v>
+      </c>
+      <c r="I46" s="8">
+        <v>44593</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>20</v>
@@ -6518,13 +7031,13 @@
         <v>21</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H47" s="8">
-        <v>44589</v>
+        <v>44599</v>
       </c>
       <c r="I47" s="8">
-        <v>44592</v>
+        <v>44601</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>53</v>
@@ -6541,39 +7054,39 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="147" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="8">
-        <v>44593</v>
-      </c>
-      <c r="I48" s="8">
-        <v>44593</v>
+        <v>113</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>22</v>
@@ -6587,39 +7100,39 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>56</v>
+        <v>166</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="8">
-        <v>44599</v>
-      </c>
-      <c r="I49" s="8">
-        <v>44601</v>
+        <v>113</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>22</v>
@@ -6630,10 +7143,10 @@
       <c r="M49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N49" s="8"/>
+      <c r="N49" s="16"/>
       <c r="O49" s="8"/>
       <c r="P49" s="16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="42" x14ac:dyDescent="0.35">
@@ -6641,22 +7154,22 @@
         <v>24</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>27</v>
@@ -6665,7 +7178,7 @@
         <v>27</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>22</v>
@@ -6679,39 +7192,39 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F51" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>22</v>
@@ -6722,70 +7235,70 @@
       <c r="M51" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N51" s="16"/>
+      <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H52" s="8" t="s">
+      <c r="G52" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="18" t="s">
         <v>27</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>20</v>
@@ -6794,7 +7307,7 @@
         <v>21</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>27</v>
@@ -6803,7 +7316,7 @@
         <v>27</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>22</v>
@@ -6816,52 +7329,54 @@
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="7"/>
+      <c r="P53" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="54" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E54" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="18" t="s">
+      <c r="H54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="I54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="J54" s="16" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -6869,22 +7384,22 @@
         <v>24</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>199</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>27</v>
@@ -6893,110 +7408,136 @@
         <v>27</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="H56" s="16">
+        <v>44853</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M56" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
-      <c r="P56" s="7"/>
+      <c r="P56" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
+        <v>198</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="J57" s="16" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="7"/>
+      <c r="P57" s="16" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F58" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>27</v>
@@ -7005,21 +7546,21 @@
         <v>27</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="M58" s="16" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="16" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -7027,22 +7568,22 @@
         <v>24</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F59" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H59" s="16" t="s">
         <v>27</v>
@@ -7057,15 +7598,15 @@
         <v>22</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
       <c r="P59" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="21" x14ac:dyDescent="0.35">
@@ -7073,68 +7614,68 @@
         <v>24</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="16">
-        <v>44853</v>
+        <v>113</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>27</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>22</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
       <c r="P60" s="16" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>27</v>
@@ -7143,164 +7684,27 @@
         <v>27</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M62" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="7"/>
-    </row>
-    <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K47:M50 K51 K52:M53 K2:K46 L45:M46 L56:L57 L64:M73 L59:M59 M55:M57 L62:M62 K54:K73" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K45:M48 K49 K50:M51 K2:K44 L44:M44 L60:M69 L53:M53 K52:K69" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
       <formula1>"Work In Progrees, Complete, Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L51:M51 L54:M54 L55 L2:M44 L58:M58 L60:M61 L63:M63" xr:uid="{DE1DE406-F1E1-41EA-A363-3FFB7444524F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L49:M49 L52:M52 L2:M43 L54:M59" xr:uid="{DE1DE406-F1E1-41EA-A363-3FFB7444524F}">
       <formula1>"Under Testing, Complete, Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F73" xr:uid="{56032840-971D-4173-A1C8-7440F8C331B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F69" xr:uid="{56032840-971D-4173-A1C8-7440F8C331B9}">
       <formula1>"Simple, Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7315,11 +7719,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BA2D27-2340-402B-AEE3-B32862D70CB0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7476,7 +7880,7 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -7535,7 +7939,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>63</v>
@@ -7566,7 +7970,7 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -7611,7 +8015,7 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -7619,7 +8023,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>68</v>
@@ -7656,7 +8060,7 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -7664,16 +8068,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>26</v>
@@ -7688,7 +8092,7 @@
         <v>44763</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>22</v>
@@ -7701,7 +8105,7 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -7712,7 +8116,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>27</v>
@@ -7746,7 +8150,7 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -7757,7 +8161,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>27</v>
@@ -7791,21 +8195,21 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
+      <c r="B11" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>27</v>
+        <v>186</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>63</v>
@@ -7823,7 +8227,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>22</v>
@@ -7834,32 +8238,32 @@
       <c r="M11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>27</v>
@@ -7868,69 +8272,41 @@
         <v>27</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
@@ -8660,29 +9036,12 @@
       <c r="N56" s="8"/>
       <c r="O56" s="7"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="7"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F68" xr:uid="{A3AEFB01-38AA-4A7B-8051-68EB35D4B7F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F67" xr:uid="{A3AEFB01-38AA-4A7B-8051-68EB35D4B7F1}">
       <formula1>"Simple, Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:M68" xr:uid="{868946EA-3652-4525-863D-5F6B01D1BE62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:M67" xr:uid="{868946EA-3652-4525-863D-5F6B01D1BE62}">
       <formula1>"Work In Progrees, Complete, Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Archive/Automation Project listN.xlsx
+++ b/Archive/Automation Project listN.xlsx
@@ -8,35 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601B701-D00F-4AB4-BC0A-801099E15F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25F699E-A438-46C7-8F1D-0C66391D0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
-    <sheet name="Work History" sheetId="5" r:id="rId2"/>
-    <sheet name="Project_List Operations" sheetId="2" r:id="rId3"/>
-    <sheet name="Project_List Others Dept." sheetId="3" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="Work History" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="ProjectTaskList_2023" sheetId="6" r:id="rId3"/>
+    <sheet name="Project_List Operations_2022" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Project_List Others Dept_2022" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Project_List Operations'!$A$1:$P$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project_List Others Dept.'!$A$2:$O$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Project_List Operations_2022'!$A$1:$P$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Project_List Others Dept_2022'!$A$2:$O$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ProjectTaskList_2023!$A:$Q</definedName>
     <definedName name="Slicer_Benefits_achieved">#N/A</definedName>
     <definedName name="Slicer_Project_Type">#N/A</definedName>
     <definedName name="Slicer_Team">#N/A</definedName>
     <definedName name="Slicer_Testing_Status">#N/A</definedName>
+    <definedName name="valuevx">42.314159</definedName>
+    <definedName name="vertex42_copyright" hidden="1">"© 2017-2019 Vertex42 LLC"</definedName>
+    <definedName name="vertex42_id" hidden="1">"project-task-list-template.xlsx"</definedName>
+    <definedName name="vertex42_title" hidden="1">"Project Task List Template"</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -60,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="308">
   <si>
     <t>Project_Type</t>
   </si>
@@ -700,13 +706,309 @@
   </si>
   <si>
     <t>SHAIKH Hussain</t>
+  </si>
+  <si>
+    <t>PROJECT TITLE</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>ACTUAL
+HOURS</t>
+  </si>
+  <si>
+    <t>EST.
+HOURS</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>% COMPLETE</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Project Start</t>
+  </si>
+  <si>
+    <t>Act.Hours</t>
+  </si>
+  <si>
+    <t>Est.Hours</t>
+  </si>
+  <si>
+    <t>PROJECT TASK LIST</t>
+  </si>
+  <si>
+    <t>PROJECT_TYPE</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>IDEA_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TOOLS USED</t>
+  </si>
+  <si>
+    <t>Benefit_Quality</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>BENEFIT ( In Min)</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>APPRECIATION</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>To Change the mypai structure with calculation automatically</t>
+  </si>
+  <si>
+    <t>EXCEL|VBA</t>
+  </si>
+  <si>
+    <t>DG_MYPAI</t>
+  </si>
+  <si>
+    <t>Benefit_Time( In Min)</t>
+  </si>
+  <si>
+    <t>Code_Completed</t>
+  </si>
+  <si>
+    <t>OPs_Support</t>
+  </si>
+  <si>
+    <t>EXCEL|PYTHON|SELENIUM</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>COSCO - To avoid the task to extract vessel code for terminal automation</t>
+  </si>
+  <si>
+    <t>Cargo Rediness</t>
+  </si>
+  <si>
+    <t>MAINTENANCE</t>
+  </si>
+  <si>
+    <t>Terminal_Extraction</t>
+  </si>
+  <si>
+    <t>NDNL - US CR</t>
+  </si>
+  <si>
+    <t>RE: Automation tool : No Doc No Load - US CR Process</t>
+  </si>
+  <si>
+    <t>EXCEL|PYTHON</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Weekly_Consolidation_Report</t>
+  </si>
+  <si>
+    <t>NEW PROJECT</t>
+  </si>
+  <si>
+    <t>To consolidate the multiple weekly report in single file</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Kudos to your prompt response Akhilesh.</t>
+  </si>
+  <si>
+    <t>Transhipment</t>
+  </si>
+  <si>
+    <t>Sachin T</t>
+  </si>
+  <si>
+    <t>Creating manual excel summary, to send load team</t>
+  </si>
+  <si>
+    <t>Remove AEJAL cargo from cuscade file</t>
+  </si>
+  <si>
+    <t>Last pol Edi and LARA PML, analysis, clearing descripancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Pml Vs Terminal Load List Comparison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Readiness - Automation Of Ndnl Cancellation Process </t>
+  </si>
+  <si>
+    <t>Nedheesh</t>
+  </si>
+  <si>
+    <t>Deep T</t>
+  </si>
+  <si>
+    <t>LTS_Data migration( with multiple condition) from various resources like PDF and excel.</t>
+  </si>
+  <si>
+    <t>VGM automation</t>
+  </si>
+  <si>
+    <t>To improve the time taken by tool.</t>
+  </si>
+  <si>
+    <t>DG_Outlook_mail auto assignment to user</t>
+  </si>
+  <si>
+    <t>To track each mail and auto assigned to user by tools</t>
+  </si>
+  <si>
+    <t>Leo R</t>
+  </si>
+  <si>
+    <t>Manoj Y</t>
+  </si>
+  <si>
+    <t>Havesh K</t>
+  </si>
+  <si>
+    <t>Palraj D</t>
+  </si>
+  <si>
+    <t>Ramesh K</t>
+  </si>
+  <si>
+    <t>File follow up auto mail (pilot project with small countries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR approval </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR PDF report auto mail to Agency after PCR Closing (India and Germany) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard from CIRA/VCR for amendment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPFOR automation </t>
+  </si>
+  <si>
+    <t>Ravikiran M</t>
+  </si>
+  <si>
+    <t>Viraj B</t>
+  </si>
+  <si>
+    <t>India PCR Closer Mail To Be Automated</t>
+  </si>
+  <si>
+    <t>Hussain S</t>
+  </si>
+  <si>
+    <t>Docs Followup Automation Required (Papua New Guiniea &amp; New Caledonia)</t>
+  </si>
+  <si>
+    <t>NavinKumar C</t>
+  </si>
+  <si>
+    <t>Oog Process To Get Approval From The Partner</t>
+  </si>
+  <si>
+    <t>Missing vessels VGM on Transhipment</t>
+  </si>
+  <si>
+    <t>Remove XRX</t>
+  </si>
+  <si>
+    <t>STATUS2</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Dubai Transhipment automation_Part A</t>
+  </si>
+  <si>
+    <t>Dubai Transhipment automation_Part C</t>
+  </si>
+  <si>
+    <t>Dubai Transhipment automation_Part B</t>
+  </si>
+  <si>
+    <t>OOG Workflow Tools</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>BAY PLAN Validation RPA</t>
+  </si>
+  <si>
+    <t>Mujaffar</t>
+  </si>
+  <si>
+    <t>The VGM tool is working successfully.
+Thank you for your continuous support.</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>LARA EDI Automation (Auto click on HARP Insert button)</t>
+  </si>
+  <si>
+    <t>Sameer S</t>
+  </si>
+  <si>
+    <t>Pre /Post Check Chasers data automation</t>
+  </si>
+  <si>
+    <t>Paul C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,8 +1122,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,8 +1224,44 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -874,15 +1284,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,15 +1386,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,22 +1400,524 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Currency 2" xfId="6" xr:uid="{8D4A926B-1102-4F30-A965-F1805AAC70A8}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="7" xr:uid="{33EC0D08-6AEB-471F-B4A4-54F054640DBA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1234,8 +2173,113 @@
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{0432DB4C-E1C1-4C67-AD99-5196CF5FB5D0}">
+      <tableStyleElement type="wholeTable" dxfId="77"/>
+      <tableStyleElement type="headerRow" dxfId="76"/>
+      <tableStyleElement type="totalRow" dxfId="75"/>
+      <tableStyleElement type="firstColumn" dxfId="74"/>
+      <tableStyleElement type="lastColumn" dxfId="73"/>
+      <tableStyleElement type="firstRowStripe" dxfId="72"/>
+      <tableStyleElement type="secondRowStripe" dxfId="71"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="70"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="69"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1567,7 +2611,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Akhilesh CHAUHAN" refreshedDate="44880.672047800923" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{E9EAFC9A-9BBE-4EBF-BD38-0840CAE1A5FD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P72" sheet="Project_List Operations"/>
+    <worksheetSource ref="A1:P72" sheet="Project_List Operations_2022"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Project_Type" numFmtId="0">
@@ -3149,57 +4193,57 @@
     <dataField name="Count of Coding Status" fld="10" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="39">
-    <format dxfId="38">
+    <format dxfId="68">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="67">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="66">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="63">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="61">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="60">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="59">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="58">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="57">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3215,7 +4259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3229,7 +4273,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3266,7 +4310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3284,7 +4328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3296,48 +4340,48 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="45">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="44">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="43">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="42">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="41">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3353,7 +4397,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3367,7 +4411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3404,7 +4448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3422,7 +4466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3434,20 +4478,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="31">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="30">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -3550,6 +4594,34 @@
   <slicer name="Benefits achieved" xr10:uid="{145780D4-C9C8-4274-801C-6F721C4216FB}" cache="Slicer_Benefits_achieved" caption="Benefits achieved" rowHeight="241300"/>
   <slicer name="Testing Status" xr10:uid="{E4A812D9-E4C9-4752-9541-E82155B25617}" cache="Slicer_Testing_Status" caption="Testing Status" rowHeight="241300"/>
 </slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35644FB3-1193-4164-A91E-D8E01C55566F}" name="Table137" displayName="Table137" ref="A5:R43" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TASK" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{502E391F-CF93-4ED9-AE36-84FA2D5D5D31}" name="PROJECT_TYPE" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{E604BE60-4AD7-4671-B95F-40008CB76B12}" name="STATUS" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TEAM" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{C4328944-3422-4AA2-AD72-CFE79D5BADCB}" name="IDEA_DESCRIPTION" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{05C12562-453F-4275-9ECF-89D2D34DC9A9}" name="OWNER" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{CBD94960-F1B2-452C-8F39-B5EAC0F4F5FA}" name="TOOLS USED" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PRIORITY" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="START" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="END" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="% COMPLETE" dataDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DONE" dataDxfId="16" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(K6&gt;=1,1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="BENEFIT ( In Min)" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="EST._x000a_HOURS" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ACTUAL_x000a_HOURS" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{4BF73ECA-1A0F-439C-AC96-A4070A8E5817}" name="STATUS2" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{3521B5BB-186F-4857-B186-FC11662E6527}" name="APPRECIATION" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="COMMENT" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3826,877 +4898,877 @@
   <cols>
     <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="47.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="47.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="75" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
+      <c r="A2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
+      <c r="A3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="28">
         <v>1</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="28">
         <v>1</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="28">
         <v>1</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="29" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="28">
         <v>1</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="29" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
         <v>1</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28">
         <v>1</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="28">
         <v>1</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28">
         <v>1</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
         <v>1</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="29" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28">
         <v>1</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="29" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32">
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28">
         <v>1</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="29" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28">
         <v>1</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="29" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28">
         <v>1</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="29" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28">
         <v>1</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="29" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28">
         <v>1</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="29" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28">
         <v>1</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="29" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28">
         <v>1</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="29" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28">
         <v>1</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="29" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28">
         <v>1</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="29" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28">
         <v>1</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="29" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28">
         <v>1</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="29" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28">
         <v>1</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="29" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28">
         <v>1</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28">
         <v>1</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="29" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28">
         <v>1</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="29" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="28">
         <v>1</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32">
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="31" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32">
+      <c r="E33" s="28"/>
+      <c r="F33" s="28">
         <v>1</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32">
+      <c r="G33" s="28"/>
+      <c r="H33" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="29" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28">
         <v>1</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32">
+      <c r="G34" s="28"/>
+      <c r="H34" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="29" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32">
+      <c r="E35" s="28"/>
+      <c r="F35" s="28">
         <v>1</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32">
+      <c r="G35" s="28"/>
+      <c r="H35" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="29" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32">
+      <c r="E36" s="28"/>
+      <c r="F36" s="28">
         <v>1</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32">
+      <c r="G36" s="28"/>
+      <c r="H36" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="29" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28">
         <v>1</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32">
+      <c r="G37" s="28"/>
+      <c r="H37" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="29" t="s">
+      <c r="C38" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="28">
         <v>1</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32">
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="29" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="28">
         <v>1</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32">
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="29" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="28">
         <v>1</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="29" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="28">
         <v>1</v>
       </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32">
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32">
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28">
         <v>1</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="29" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32">
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28">
         <v>1</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="29" t="s">
+      <c r="C44" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32">
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28">
         <v>1</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="29" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32">
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28">
         <v>1</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="29" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32">
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28">
         <v>1</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="29" t="s">
+      <c r="C47" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32">
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28">
         <v>1</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="29" t="s">
+      <c r="C48" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="28">
         <v>1</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32">
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="29" t="s">
+      <c r="C49" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="28">
         <v>1</v>
       </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32">
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="29" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="28">
         <v>1</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32">
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="29" t="s">
+      <c r="C51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="28">
         <v>1</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32">
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="29" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="28">
         <v>1</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.7">
-      <c r="A53" s="29" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="32">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="28">
         <v>16</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="28">
         <v>5</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="28">
         <v>26</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="28">
         <v>47</v>
       </c>
     </row>
@@ -4789,70 +5861,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4860,13 +5932,1693 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2748276A-2D4F-484D-B733-DA743627E140}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.6328125" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="S2" s="61"/>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="60">
+        <v>44915</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="65">
+        <f>SUBTOTAL(9,$M$7:$M$41)</f>
+        <v>15</v>
+      </c>
+      <c r="M3" s="65">
+        <f>COUNTIF($M$7:$M$41,"Quality")</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="58">
+        <f>SUM(Table137[EST.
+HOURS])</f>
+        <v>30</v>
+      </c>
+      <c r="O3" s="58">
+        <f>SUM(Table137[ACTUAL
+HOURS])</f>
+        <v>23</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="S3" s="57"/>
+    </row>
+    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S4" s="48"/>
+    </row>
+    <row r="5" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="T5" s="50"/>
+    </row>
+    <row r="6" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="39">
+        <v>0</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="36"/>
+      <c r="T6" s="49"/>
+    </row>
+    <row r="7" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="46">
+        <v>44914</v>
+      </c>
+      <c r="J7" s="32">
+        <v>44915</v>
+      </c>
+      <c r="K7" s="44">
+        <v>1</v>
+      </c>
+      <c r="L7" s="34">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="N7" s="45">
+        <v>12</v>
+      </c>
+      <c r="O7" s="45">
+        <v>7</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="33"/>
+      <c r="T7" s="48"/>
+    </row>
+    <row r="8" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="46">
+        <v>44915</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0</v>
+      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="33"/>
+      <c r="T8" s="47"/>
+    </row>
+    <row r="9" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="34">
+        <f t="shared" ref="L9:L10" si="0">IF(K9&gt;=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="33"/>
+      <c r="T9" s="47"/>
+    </row>
+    <row r="10" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="46">
+        <v>44916</v>
+      </c>
+      <c r="J10" s="46">
+        <v>44917</v>
+      </c>
+      <c r="K10" s="44">
+        <v>1</v>
+      </c>
+      <c r="L10" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="45">
+        <v>15</v>
+      </c>
+      <c r="N10" s="45">
+        <v>18</v>
+      </c>
+      <c r="O10" s="45">
+        <v>16</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="34">
+        <f t="shared" ref="L11:L41" si="1">IF(K11&gt;=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="33"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="33"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="33"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="44">
+        <v>1</v>
+      </c>
+      <c r="L14" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q14" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="R14" s="33"/>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="33"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="1:20" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="33"/>
+      <c r="T16" s="31"/>
+    </row>
+    <row r="17" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="33"/>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="33"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="33"/>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="33"/>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="33"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="33"/>
+      <c r="T22" s="31"/>
+    </row>
+    <row r="23" spans="1:20" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="33"/>
+      <c r="T23" s="31"/>
+    </row>
+    <row r="24" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="33"/>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="1:20" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="33"/>
+      <c r="T25" s="31"/>
+    </row>
+    <row r="26" spans="1:20" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" s="46">
+        <v>44959</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="33"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="33"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="28" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="33"/>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="33"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="L30" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="33"/>
+    </row>
+    <row r="31" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="L31" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="44"/>
+      <c r="L32" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="33"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="33"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="33"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="33"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="33"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="33"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="33"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="33"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="33"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="33"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72">
+        <f>IF(K42&gt;=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="73"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="33"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="35"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="72">
+        <f>IF(K43&gt;=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="73"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="33"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K7:K41">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A4115A1C-7BE2-4357-9A0E-E90528F2DC50}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H41">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",H7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="26" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",H7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",H7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{567CE529-0F53-467D-87A9-52BA92E07873}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",H6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="22" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",H6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C41">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="ENHANCEMENT">
+      <formula>NOT(ISERROR(SEARCH("ENHANCEMENT",B7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="MAINTENANCE">
+      <formula>NOT(ISERROR(SEARCH("MAINTENANCE",B7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="NEW PROJECT">
+      <formula>NOT(ISERROR(SEARCH("NEW PROJECT",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B41" xr:uid="{D640427A-AE96-4985-A4A6-F98C4C9E8F7B}">
+      <formula1>"NEW PROJECT,MAINTENANCE,ENHANCEMENT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L43" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"1,0,-1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H43" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"HIGH,MEDIUM,LOW"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P43" xr:uid="{4BDF7F5E-C12D-4F96-87A6-439E10B8FA8F}">
+      <formula1>"In Progress,Code_Completed,Testing,Not Started,Hold"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C41" xr:uid="{1F0E06C2-896D-48CC-BB72-A89613D1AB70}">
+      <formula1>"Completed,In-Progress,Pending"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.25"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0">
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9&amp;K01+044https://www.vertex42.com/ExcelTemplates/task-list-template.html&amp;R&amp;"Arial,Regular"&amp;9&amp;K01+044Project Task List Template © 2017 by Vertex42.com</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A4115A1C-7BE2-4357-9A0E-E90528F2DC50}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K7:K41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{567CE529-0F53-467D-87A9-52BA92E07873}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="24" id="{990DAADD-2672-495C-B852-C72B58E7A69C}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="240" id="{0A7CE449-05D4-4977-9952-D38B7D72A896}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>L7:L41</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4938,7 +7690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -5030,7 +7782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -5076,7 +7828,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
@@ -5122,7 +7874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -5812,7 +8564,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>32</v>
       </c>
@@ -6098,7 +8850,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
@@ -6145,7 +8897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
@@ -6191,7 +8943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>24</v>
       </c>
@@ -6235,7 +8987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>24</v>
       </c>
@@ -6281,7 +9033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="84" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
@@ -6327,7 +9079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>32</v>
       </c>
@@ -6421,7 +9173,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>24</v>
       </c>
@@ -6641,7 +9393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>24</v>
       </c>
@@ -6733,7 +9485,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>24</v>
       </c>
@@ -6919,7 +9671,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>24</v>
       </c>
@@ -6965,7 +9717,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="147" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="147" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>32</v>
       </c>
@@ -7011,7 +9763,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="63" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>32</v>
       </c>
@@ -7057,7 +9809,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>24</v>
       </c>
@@ -7103,7 +9855,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>32</v>
       </c>
@@ -7149,7 +9901,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>24</v>
       </c>
@@ -7195,7 +9947,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>24</v>
       </c>
@@ -7287,7 +10039,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>18</v>
       </c>
@@ -7333,7 +10085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>24</v>
       </c>
@@ -7471,7 +10223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>32</v>
       </c>
@@ -7563,7 +10315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>24</v>
       </c>
@@ -7609,7 +10361,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>24</v>
       </c>
@@ -7697,6 +10449,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P61" xr:uid="{C799EEB6-A31F-4379-9142-2B72D2D00067}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Pending"/>
+        <filter val="Under Testing"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K45:M48 K49 K50:M51 K2:K44 L44:M44 L60:M69 L53:M53 K52:K69" xr:uid="{CE8AB2ED-5BCB-4ACF-8121-721991C1B371}">
       <formula1>"Work In Progrees, Complete, Pending"</formula1>
@@ -7716,14 +10476,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BA2D27-2340-402B-AEE3-B32862D70CB0}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7935,37 +10695,37 @@
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="13">
         <v>44608</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="13">
         <v>44608</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="21" t="s">
+      <c r="K5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="8"/>
@@ -7980,37 +10740,37 @@
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="13">
         <v>44608</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="13">
         <v>44608</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="21" t="s">
+      <c r="K6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="8"/>
@@ -8022,40 +10782,40 @@
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="13">
         <v>44628</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="13">
         <v>44635</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="21" t="s">
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="8"/>
@@ -8073,16 +10833,16 @@
       <c r="C8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="8" t="s">
         <v>69</v>
       </c>
       <c r="H8" s="13">
@@ -8094,13 +10854,13 @@
       <c r="J8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="21" t="s">
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N8" s="8"/>
@@ -8118,7 +10878,7 @@
       <c r="C9" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -8163,7 +10923,7 @@
       <c r="C10" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
